--- a/ignite/性能测试/结果/分布式内存库测试用例（第四版IB）.xlsx
+++ b/ignite/性能测试/结果/分布式内存库测试用例（第四版IB）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-140" yWindow="-470" windowWidth="19420" windowHeight="8000" tabRatio="772" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="-140" yWindow="-470" windowWidth="19420" windowHeight="8000" tabRatio="772" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="(功能测试)" sheetId="1" r:id="rId1"/>
@@ -23,15 +23,16 @@
     <sheet name="区间计算" sheetId="7" r:id="rId14"/>
     <sheet name="关联表" sheetId="6" r:id="rId15"/>
     <sheet name="模糊查询" sheetId="8" r:id="rId16"/>
-    <sheet name="持久化" sheetId="9" r:id="rId17"/>
-    <sheet name="持久化恢复" sheetId="10" r:id="rId18"/>
+    <sheet name="direct io" sheetId="40" r:id="rId17"/>
+    <sheet name="持久化" sheetId="9" r:id="rId18"/>
+    <sheet name="持久化恢复" sheetId="10" r:id="rId19"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="289">
   <si>
     <t>序号</t>
   </si>
@@ -1314,6 +1315,27 @@
   </si>
   <si>
     <t>sql second index</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Partition get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sql</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地盘 io插件</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2042,11 +2064,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="198733824"/>
-        <c:axId val="200178304"/>
+        <c:axId val="203845632"/>
+        <c:axId val="205294208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198733824"/>
+        <c:axId val="203845632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2056,7 +2078,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200178304"/>
+        <c:crossAx val="205294208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2064,7 +2086,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200178304"/>
+        <c:axId val="205294208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2075,7 +2097,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198733824"/>
+        <c:crossAx val="203845632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2224,11 +2246,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="200743552"/>
-        <c:axId val="200745344"/>
+        <c:axId val="205855360"/>
+        <c:axId val="205857152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="200743552"/>
+        <c:axId val="205855360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2238,7 +2260,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200745344"/>
+        <c:crossAx val="205857152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2246,7 +2268,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200745344"/>
+        <c:axId val="205857152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2257,7 +2279,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200743552"/>
+        <c:crossAx val="205855360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3944,8 +3966,8 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4048,21 +4070,21 @@
       </c>
       <c r="J3" s="87">
         <f>L3/C3*I3</f>
-        <v>1E-3</v>
+        <v>0.223108</v>
       </c>
       <c r="K3" s="87">
         <f>1000/J3*I3</f>
-        <v>1000000</v>
+        <v>4482.1342130268749</v>
       </c>
       <c r="L3" s="49">
         <f>N3/M3</f>
-        <v>10000</v>
+        <v>2231080</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3">
-        <v>10000</v>
+        <v>2231080</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4094,21 +4116,21 @@
       </c>
       <c r="J4" s="87">
         <f t="shared" ref="J4:J5" si="1">L4/C4*I4</f>
-        <v>0.02</v>
+        <v>0.44325800000000004</v>
       </c>
       <c r="K4" s="87">
         <f t="shared" ref="K4:K5" si="2">1000/J4*I4</f>
-        <v>5000000</v>
+        <v>225602.24519354413</v>
       </c>
       <c r="L4" s="49">
         <f>N4/M4</f>
-        <v>2000</v>
+        <v>44325.8</v>
       </c>
       <c r="M4">
         <v>5</v>
       </c>
       <c r="N4">
-        <v>10000</v>
+        <v>221629</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -4140,21 +4162,21 @@
       </c>
       <c r="J5" s="87">
         <f t="shared" si="1"/>
-        <v>0.04</v>
+        <v>0.64088800000000001</v>
       </c>
       <c r="K5" s="87">
         <f t="shared" si="2"/>
-        <v>5000000</v>
+        <v>312067.00702774903</v>
       </c>
       <c r="L5" s="49">
         <f>N5/M5</f>
-        <v>2000</v>
+        <v>32044.400000000001</v>
       </c>
       <c r="M5">
         <v>5</v>
       </c>
       <c r="N5">
-        <v>10000</v>
+        <v>160222</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -4188,21 +4210,21 @@
       </c>
       <c r="J6" s="87">
         <f>L6/C6*I6</f>
-        <v>1E-3</v>
+        <v>0.38735000000000003</v>
       </c>
       <c r="K6" s="87">
         <f>1000/J6*I6</f>
-        <v>1000000</v>
+        <v>2581.6445075513102</v>
       </c>
       <c r="L6" s="49">
         <f>N6/M6</f>
-        <v>10000</v>
+        <v>3873500</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6">
-        <v>10000</v>
+        <v>3873500</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -4234,21 +4256,21 @@
       </c>
       <c r="J7" s="87">
         <f t="shared" ref="J7:J8" si="4">L7/C7*I7</f>
-        <v>0.02</v>
+        <v>0.713978</v>
       </c>
       <c r="K7" s="87">
         <f t="shared" ref="K7:K8" si="5">1000/J7*I7</f>
-        <v>5000000</v>
+        <v>140060.33799360765</v>
       </c>
       <c r="L7" s="49">
         <f t="shared" ref="L7:L8" si="6">N7/M7</f>
-        <v>2000</v>
+        <v>71397.8</v>
       </c>
       <c r="M7">
         <v>5</v>
       </c>
       <c r="N7">
-        <v>10000</v>
+        <v>356989</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -4280,21 +4302,21 @@
       </c>
       <c r="J8" s="87">
         <f t="shared" si="4"/>
-        <v>0.04</v>
+        <v>0.90407599999999999</v>
       </c>
       <c r="K8" s="87">
         <f t="shared" si="5"/>
-        <v>5000000</v>
+        <v>221220.33988293019</v>
       </c>
       <c r="L8" s="49">
         <f t="shared" si="6"/>
-        <v>2000</v>
+        <v>45203.8</v>
       </c>
       <c r="M8">
         <v>5</v>
       </c>
       <c r="N8">
-        <v>10000</v>
+        <v>226019</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -4328,21 +4350,21 @@
       </c>
       <c r="J9" s="87">
         <f>L9/C9*I9</f>
-        <v>1E-3</v>
+        <v>0.55125999999999997</v>
       </c>
       <c r="K9" s="87">
         <f>1000/J9*I9</f>
-        <v>1000000</v>
+        <v>1814.0260494140696</v>
       </c>
       <c r="L9" s="49">
         <f>N9/M9</f>
-        <v>10000</v>
+        <v>5512600</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
       <c r="N9">
-        <v>10000</v>
+        <v>5512600</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4374,21 +4396,21 @@
       </c>
       <c r="J10" s="87">
         <f t="shared" ref="J10:J11" si="8">L10/C10*I10</f>
-        <v>0.02</v>
+        <v>2.8419120000000002</v>
       </c>
       <c r="K10" s="87">
         <f t="shared" ref="K10:K11" si="9">1000/J10*I10</f>
-        <v>5000000</v>
+        <v>35187.577940485135</v>
       </c>
       <c r="L10" s="49">
         <f t="shared" ref="L10:L11" si="10">N10/M10</f>
-        <v>2000</v>
+        <v>284191.2</v>
       </c>
       <c r="M10">
         <v>5</v>
       </c>
       <c r="N10">
-        <v>10000</v>
+        <v>1420956</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4420,21 +4442,21 @@
       </c>
       <c r="J11" s="87">
         <f t="shared" si="8"/>
-        <v>0.04</v>
+        <v>4.75962</v>
       </c>
       <c r="K11" s="87">
         <f t="shared" si="9"/>
-        <v>5000000</v>
+        <v>42020.161273378966</v>
       </c>
       <c r="L11" s="49">
         <f t="shared" si="10"/>
-        <v>2000</v>
+        <v>237981</v>
       </c>
       <c r="M11">
         <v>5</v>
       </c>
       <c r="N11">
-        <v>10000</v>
+        <v>1189905</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4468,21 +4490,21 @@
       </c>
       <c r="J12" s="87">
         <f>L12/C12*I12</f>
-        <v>1E-3</v>
+        <v>0.58735599999999999</v>
       </c>
       <c r="K12" s="87">
         <f>1000/J12*I12</f>
-        <v>1000000</v>
+        <v>1702.544964212505</v>
       </c>
       <c r="L12" s="49">
         <f>N12/M12</f>
-        <v>10000</v>
+        <v>5873560</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="N12">
-        <v>10000</v>
+        <v>5873560</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4514,21 +4536,21 @@
       </c>
       <c r="J13" s="87">
         <f t="shared" ref="J13:J14" si="12">L13/C13*I13</f>
-        <v>0.02</v>
+        <v>3.12263</v>
       </c>
       <c r="K13" s="87">
         <f t="shared" ref="K13:K14" si="13">1000/J13*I13</f>
-        <v>5000000</v>
+        <v>32024.287219427213</v>
       </c>
       <c r="L13" s="49">
         <f t="shared" ref="L13:L14" si="14">N13/M13</f>
-        <v>2000</v>
+        <v>312263</v>
       </c>
       <c r="M13">
         <v>5</v>
       </c>
       <c r="N13">
-        <v>10000</v>
+        <v>1561315</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -4560,21 +4582,21 @@
       </c>
       <c r="J14" s="87">
         <f t="shared" si="12"/>
-        <v>0.04</v>
+        <v>4.9474520000000002</v>
       </c>
       <c r="K14" s="87">
         <f t="shared" si="13"/>
-        <v>5000000</v>
+        <v>40424.848992976586</v>
       </c>
       <c r="L14" s="49">
         <f t="shared" si="14"/>
-        <v>2000</v>
+        <v>247372.6</v>
       </c>
       <c r="M14">
         <v>5</v>
       </c>
       <c r="N14">
-        <v>10000</v>
+        <v>1236863</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.15" customHeight="1">
@@ -6396,19 +6418,21 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.6328125" customWidth="1"/>
     <col min="3" max="3" width="11.36328125" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
     <col min="6" max="6" width="15.08984375" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125"/>
-    <col min="10" max="10" width="12.90625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.15" customHeight="1">
@@ -6494,27 +6518,23 @@
       </c>
       <c r="I3" s="11">
         <f>M3/C3*H3</f>
-        <v>0.276671</v>
+        <v>0.53732040000000003</v>
       </c>
       <c r="J3" s="10">
         <f>1000/I3*H3</f>
-        <v>3614.4012202218519</v>
-      </c>
-      <c r="K3" s="11">
-        <v>0.26114809999999999</v>
-      </c>
-      <c r="L3" s="11">
-        <v>3829.2447849999999</v>
-      </c>
+        <v>1861.0869790166164</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
       <c r="M3" s="11">
         <f>O3/N3</f>
-        <v>2766710</v>
+        <v>5373204</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3">
-        <v>2766710</v>
+        <v>5373204</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -6540,28 +6560,24 @@
         <v>50</v>
       </c>
       <c r="I4" s="11">
-        <f t="shared" ref="I4:I16" si="0">M4/C4*H4</f>
-        <v>0.53356499999999996</v>
+        <f t="shared" ref="I4:I9" si="0">M4/C4*H4</f>
+        <v>0.57924900000000001</v>
       </c>
       <c r="J4" s="10">
-        <f t="shared" ref="J4:J16" si="1">1000/I4*H4</f>
-        <v>93709.295024973544</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0.44394499999999998</v>
-      </c>
-      <c r="L4" s="11">
-        <v>112626.5641</v>
-      </c>
+        <f t="shared" ref="J4:J9" si="1">1000/I4*H4</f>
+        <v>86318.664339515482</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
       <c r="M4" s="11">
-        <f t="shared" ref="M4:M16" si="2">O4/N4</f>
-        <v>106713</v>
+        <f t="shared" ref="M4:M9" si="2">O4/N4</f>
+        <v>115849.8</v>
       </c>
       <c r="N4">
         <v>5</v>
       </c>
       <c r="O4">
-        <v>533565</v>
+        <v>579249</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -6588,27 +6604,23 @@
       </c>
       <c r="I5" s="11">
         <f t="shared" si="0"/>
-        <v>0.76653199999999999</v>
+        <v>1.366196</v>
       </c>
       <c r="J5" s="10">
         <f t="shared" si="1"/>
-        <v>130457.69778691561</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0.54191400000000001</v>
-      </c>
-      <c r="L5" s="11">
-        <v>184531.1249</v>
-      </c>
+        <v>73195.939674834357</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
       <c r="M5" s="11">
         <f t="shared" si="2"/>
-        <v>76653.2</v>
+        <v>136619.6</v>
       </c>
       <c r="N5">
         <v>5</v>
       </c>
       <c r="O5">
-        <v>383266</v>
+        <v>683098</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -6635,27 +6647,23 @@
       </c>
       <c r="I6" s="11">
         <f t="shared" si="0"/>
-        <v>1.0392760000000001</v>
+        <v>2.492864</v>
       </c>
       <c r="J6" s="10">
         <f t="shared" si="1"/>
-        <v>192441.66131037375</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0.71161200000000002</v>
-      </c>
-      <c r="L6" s="11">
-        <v>281052.03399999999</v>
-      </c>
+        <v>80229.005673795284</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
       <c r="M6" s="11">
         <f t="shared" si="2"/>
-        <v>51963.8</v>
+        <v>124643.2</v>
       </c>
       <c r="N6">
         <v>5</v>
       </c>
       <c r="O6">
-        <v>259819</v>
+        <v>623216</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -6682,23 +6690,23 @@
       </c>
       <c r="I7" s="11">
         <f t="shared" si="0"/>
-        <v>0.32986399999999999</v>
+        <v>0.21986</v>
       </c>
       <c r="J7" s="10">
         <f t="shared" si="1"/>
-        <v>3031.552397351636</v>
+        <v>4548.3489493313928</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11">
         <f t="shared" si="2"/>
-        <v>3298640</v>
+        <v>2198600</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7">
-        <v>3298640</v>
+        <v>2198600</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -6725,23 +6733,23 @@
       </c>
       <c r="I8" s="11">
         <f t="shared" si="0"/>
-        <v>0.41415800000000008</v>
+        <v>0.45600800000000002</v>
       </c>
       <c r="J8" s="10">
         <f t="shared" si="1"/>
-        <v>241453.7447061266</v>
+        <v>219294.39834388869</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11">
         <f t="shared" si="2"/>
-        <v>41415.800000000003</v>
+        <v>45600.800000000003</v>
       </c>
       <c r="N8">
         <v>5</v>
       </c>
       <c r="O8">
-        <v>207079</v>
+        <v>228004</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -6768,26 +6776,29 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" si="0"/>
-        <v>0.5456359999999999</v>
+        <v>0.63971999999999996</v>
       </c>
       <c r="J9" s="10">
         <f t="shared" si="1"/>
-        <v>366544.72945333528</v>
+        <v>312636.77859063342</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11">
         <f t="shared" si="2"/>
-        <v>27281.8</v>
+        <v>31986</v>
       </c>
       <c r="N9">
         <v>5</v>
       </c>
       <c r="O9">
-        <v>136409</v>
+        <v>159930</v>
       </c>
     </row>
     <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
       <c r="B10" s="85" t="s">
         <v>279</v>
       </c>
@@ -6797,8 +6808,8 @@
       <c r="D10" s="11">
         <v>1</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>231</v>
+      <c r="E10" s="59" t="s">
+        <v>288</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>127</v>
@@ -6810,24 +6821,24 @@
         <v>1</v>
       </c>
       <c r="I10" s="11">
-        <f t="shared" si="0"/>
-        <v>0.47114149999999999</v>
+        <f>M10/C10*H10</f>
+        <v>0.54794010000000004</v>
       </c>
       <c r="J10" s="10">
-        <f t="shared" si="1"/>
-        <v>2122.5045978755852</v>
+        <f>1000/I10*H10</f>
+        <v>1825.0170045959401</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11">
-        <f t="shared" si="2"/>
-        <v>4711415</v>
+        <f>O10/N10</f>
+        <v>5479401</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
       <c r="O10">
-        <v>4711415</v>
+        <v>5479401</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -6840,8 +6851,8 @@
       <c r="D11" s="11">
         <v>1</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>231</v>
+      <c r="E11" s="59" t="s">
+        <v>288</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>127</v>
@@ -6853,24 +6864,24 @@
         <v>50</v>
       </c>
       <c r="I11" s="11">
-        <f t="shared" si="0"/>
-        <v>0.47524899999999998</v>
+        <f t="shared" ref="I11:I16" si="3">M11/C11*H11</f>
+        <v>0.53361099999999995</v>
       </c>
       <c r="J11" s="10">
-        <f t="shared" si="1"/>
-        <v>105208.00675014572</v>
+        <f t="shared" ref="J11:J16" si="4">1000/I11*H11</f>
+        <v>93701.216804001422</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11">
-        <f t="shared" si="2"/>
-        <v>95049.8</v>
+        <f t="shared" ref="M11:M16" si="5">O11/N11</f>
+        <v>106722.2</v>
       </c>
       <c r="N11">
         <v>5</v>
       </c>
       <c r="O11">
-        <v>475249</v>
+        <v>533611</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -6883,8 +6894,8 @@
       <c r="D12" s="11">
         <v>1</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>231</v>
+      <c r="E12" s="59" t="s">
+        <v>288</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>127</v>
@@ -6896,24 +6907,24 @@
         <v>100</v>
       </c>
       <c r="I12" s="11">
-        <f t="shared" si="0"/>
-        <v>0.59511000000000003</v>
+        <f t="shared" si="3"/>
+        <v>1.5903039999999999</v>
       </c>
       <c r="J12" s="10">
-        <f t="shared" si="1"/>
-        <v>168036.16138192939</v>
+        <f t="shared" si="4"/>
+        <v>62881.059218866336</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11">
-        <f t="shared" si="2"/>
-        <v>59511</v>
+        <f t="shared" si="5"/>
+        <v>159030.39999999999</v>
       </c>
       <c r="N12">
         <v>5</v>
       </c>
       <c r="O12">
-        <v>297555</v>
+        <v>795152</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -6926,8 +6937,8 @@
       <c r="D13" s="11">
         <v>1</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>231</v>
+      <c r="E13" s="59" t="s">
+        <v>288</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>127</v>
@@ -6939,24 +6950,24 @@
         <v>200</v>
       </c>
       <c r="I13" s="11">
-        <f t="shared" si="0"/>
-        <v>0.80280000000000007</v>
+        <f t="shared" si="3"/>
+        <v>2.6549199999999997</v>
       </c>
       <c r="J13" s="10">
-        <f t="shared" si="1"/>
-        <v>249128.05181863479</v>
+        <f t="shared" si="4"/>
+        <v>75331.836740843428</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11">
-        <f t="shared" si="2"/>
-        <v>40140</v>
+        <f t="shared" si="5"/>
+        <v>132746</v>
       </c>
       <c r="N13">
         <v>5</v>
       </c>
       <c r="O13">
-        <v>200700</v>
+        <v>663730</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -6969,8 +6980,8 @@
       <c r="D14" s="11">
         <v>1</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>231</v>
+      <c r="E14" s="59" t="s">
+        <v>288</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>136</v>
@@ -6982,24 +6993,24 @@
         <v>1</v>
       </c>
       <c r="I14" s="11">
-        <f t="shared" si="0"/>
-        <v>0.25817410000000002</v>
+        <f t="shared" si="3"/>
+        <v>0.21746099999999999</v>
       </c>
       <c r="J14" s="10">
-        <f t="shared" si="1"/>
-        <v>3873.3552281193192</v>
+        <f t="shared" si="4"/>
+        <v>4598.525712656523</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11">
-        <f t="shared" si="2"/>
-        <v>2581741</v>
+        <f t="shared" si="5"/>
+        <v>2174610</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>2581741</v>
+        <v>2174610</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -7012,8 +7023,8 @@
       <c r="D15" s="11">
         <v>1</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>231</v>
+      <c r="E15" s="59" t="s">
+        <v>288</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>136</v>
@@ -7025,24 +7036,24 @@
         <v>100</v>
       </c>
       <c r="I15" s="11">
-        <f t="shared" si="0"/>
-        <v>0.41708199999999995</v>
+        <f t="shared" si="3"/>
+        <v>0.44125999999999999</v>
       </c>
       <c r="J15" s="10">
-        <f t="shared" si="1"/>
-        <v>239761.00622899097</v>
+        <f t="shared" si="4"/>
+        <v>226623.75923491817</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11">
-        <f t="shared" si="2"/>
-        <v>41708.199999999997</v>
+        <f t="shared" si="5"/>
+        <v>44126</v>
       </c>
       <c r="N15">
         <v>5</v>
       </c>
       <c r="O15">
-        <v>208541</v>
+        <v>220630</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -7055,8 +7066,8 @@
       <c r="D16" s="11">
         <v>1</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>231</v>
+      <c r="E16" s="59" t="s">
+        <v>288</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>136</v>
@@ -7068,24 +7079,24 @@
         <v>200</v>
       </c>
       <c r="I16" s="11">
-        <f t="shared" si="0"/>
-        <v>0.51563599999999998</v>
+        <f t="shared" si="3"/>
+        <v>0.62281600000000004</v>
       </c>
       <c r="J16" s="10">
-        <f t="shared" si="1"/>
-        <v>387870.51330783736</v>
+        <f t="shared" si="4"/>
+        <v>321122.12916816521</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11">
-        <f t="shared" si="2"/>
-        <v>25781.8</v>
+        <f t="shared" si="5"/>
+        <v>31140.799999999999</v>
       </c>
       <c r="N16">
         <v>5</v>
       </c>
       <c r="O16">
-        <v>128909</v>
+        <v>155704</v>
       </c>
     </row>
   </sheetData>
@@ -7099,6 +7110,695 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="6.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="15.08984375" customWidth="1"/>
+    <col min="9" max="9" width="10.6328125"/>
+    <col min="10" max="10" width="12.90625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="14.15" customHeight="1">
+      <c r="A1" s="112" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+    </row>
+    <row r="2" spans="1:15" ht="42">
+      <c r="A2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="8">
+        <v>20</v>
+      </c>
+      <c r="H3" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11">
+        <f>M3/C3*H3</f>
+        <v>0.276671</v>
+      </c>
+      <c r="J3" s="10">
+        <f>1000/I3*H3</f>
+        <v>3614.4012202218519</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11">
+        <f>O3/N3</f>
+        <v>2766710</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>2766710</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="8">
+        <v>20</v>
+      </c>
+      <c r="H4" s="14">
+        <v>50</v>
+      </c>
+      <c r="I4" s="11">
+        <f t="shared" ref="I4:I16" si="0">M4/C4*H4</f>
+        <v>0.53356499999999996</v>
+      </c>
+      <c r="J4" s="10">
+        <f t="shared" ref="J4:J16" si="1">1000/I4*H4</f>
+        <v>93709.295024973544</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11">
+        <f t="shared" ref="M4:M16" si="2">O4/N4</f>
+        <v>106713</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>533565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="8">
+        <v>20</v>
+      </c>
+      <c r="H5" s="14">
+        <v>100</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.76653199999999999</v>
+      </c>
+      <c r="J5" s="10">
+        <f t="shared" si="1"/>
+        <v>130457.69778691561</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11">
+        <f t="shared" si="2"/>
+        <v>76653.2</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>383266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="8">
+        <v>20</v>
+      </c>
+      <c r="H6" s="14">
+        <v>200</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" si="0"/>
+        <v>1.0392760000000001</v>
+      </c>
+      <c r="J6" s="10">
+        <f t="shared" si="1"/>
+        <v>192441.66131037375</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11">
+        <f t="shared" si="2"/>
+        <v>51963.8</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>259819</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="8">
+        <v>20</v>
+      </c>
+      <c r="H7" s="14">
+        <v>1</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.32986399999999999</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" si="1"/>
+        <v>3031.552397351636</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11">
+        <f t="shared" si="2"/>
+        <v>3298640</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>3298640</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="8">
+        <v>20</v>
+      </c>
+      <c r="H8" s="14">
+        <v>100</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41415800000000008</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" si="1"/>
+        <v>241453.7447061266</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11">
+        <f t="shared" si="2"/>
+        <v>41415.800000000003</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>207079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="C9" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="8">
+        <v>20</v>
+      </c>
+      <c r="H9" s="14">
+        <v>200</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.5456359999999999</v>
+      </c>
+      <c r="J9" s="10">
+        <f t="shared" si="1"/>
+        <v>366544.72945333528</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11">
+        <f t="shared" si="2"/>
+        <v>27281.8</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>136409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="8">
+        <v>20</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.47114149999999999</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" si="1"/>
+        <v>2122.5045978755852</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11">
+        <f t="shared" si="2"/>
+        <v>4711415</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>4711415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="8">
+        <v>20</v>
+      </c>
+      <c r="H11" s="14">
+        <v>50</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="0"/>
+        <v>0.47524899999999998</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="1"/>
+        <v>105208.00675014572</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11">
+        <f t="shared" si="2"/>
+        <v>95049.8</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>475249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="C12" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="8">
+        <v>20</v>
+      </c>
+      <c r="H12" s="14">
+        <v>100</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="0"/>
+        <v>0.59511000000000003</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="1"/>
+        <v>168036.16138192939</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11">
+        <f t="shared" si="2"/>
+        <v>59511</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>297555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="8">
+        <v>20</v>
+      </c>
+      <c r="H13" s="14">
+        <v>200</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="0"/>
+        <v>0.80280000000000007</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" si="1"/>
+        <v>249128.05181863479</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11">
+        <f t="shared" si="2"/>
+        <v>40140</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>200700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="C14" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="8">
+        <v>20</v>
+      </c>
+      <c r="H14" s="14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25817410000000002</v>
+      </c>
+      <c r="J14" s="10">
+        <f t="shared" si="1"/>
+        <v>3873.3552281193192</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11">
+        <f t="shared" si="2"/>
+        <v>2581741</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>2581741</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="C15" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="8">
+        <v>20</v>
+      </c>
+      <c r="H15" s="14">
+        <v>100</v>
+      </c>
+      <c r="I15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41708199999999995</v>
+      </c>
+      <c r="J15" s="10">
+        <f t="shared" si="1"/>
+        <v>239761.00622899097</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11">
+        <f t="shared" si="2"/>
+        <v>41708.199999999997</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>208541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="C16" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="8">
+        <v>20</v>
+      </c>
+      <c r="H16" s="14">
+        <v>200</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" si="0"/>
+        <v>0.51563599999999998</v>
+      </c>
+      <c r="J16" s="10">
+        <f t="shared" si="1"/>
+        <v>387870.51330783736</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11">
+        <f t="shared" si="2"/>
+        <v>25781.8</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>128909</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -8670,10 +9370,10 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -8816,7 +9516,7 @@
         <v>10000000</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" ref="D4:D23" si="0">C4/E4/H4/I4</f>
+        <f t="shared" ref="D4:D26" si="0">C4/E4/H4/I4</f>
         <v>5000</v>
       </c>
       <c r="E4" s="11">
@@ -8835,15 +9535,15 @@
         <v>100</v>
       </c>
       <c r="J4" s="87">
-        <f t="shared" ref="J4:J23" si="1">L4/C4*I4</f>
+        <f t="shared" ref="J4:J26" si="1">L4/C4*I4</f>
         <v>0.51347199999999993</v>
       </c>
       <c r="K4" s="87">
-        <f t="shared" ref="K4:K23" si="2">1000/J4*I4</f>
+        <f t="shared" ref="K4:K26" si="2">1000/J4*I4</f>
         <v>194752.58631434629</v>
       </c>
       <c r="L4" s="49">
-        <f t="shared" ref="L4:L23" si="3">P4/O4</f>
+        <f t="shared" ref="L4:L26" si="3">P4/O4</f>
         <v>51347.199999999997</v>
       </c>
       <c r="M4" s="88">
@@ -8912,21 +9612,24 @@
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="75"/>
+      <c r="A6" s="75" t="s">
+        <v>125</v>
+      </c>
       <c r="B6" s="59" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C6" s="59">
-        <v>1</v>
+        <v>10000000</v>
       </c>
       <c r="D6" s="8">
-        <v>1000</v>
+        <f>C6/E6/H6/I6</f>
+        <v>500000</v>
       </c>
       <c r="E6" s="11">
         <v>1</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>137</v>
+      <c r="F6" s="60" t="s">
+        <v>287</v>
       </c>
       <c r="G6" s="8">
         <v>10000</v>
@@ -8938,40 +9641,47 @@
         <v>1</v>
       </c>
       <c r="J6" s="87">
-        <f>L6/D6/H6</f>
-        <v>0.2455</v>
+        <f>L6/C6*I6</f>
+        <v>0.20846120000000001</v>
       </c>
       <c r="K6" s="87">
         <f>1000/J6*I6</f>
-        <v>4073.3197556008149</v>
+        <v>4797.0557590573208</v>
       </c>
       <c r="L6" s="49">
-        <f t="shared" si="3"/>
-        <v>4910</v>
+        <f>P6/O6</f>
+        <v>2084612</v>
+      </c>
+      <c r="M6" s="88">
+        <v>0.69</v>
+      </c>
+      <c r="N6" s="24">
+        <v>1442</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6">
-        <v>4910</v>
+        <v>2084612</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="47"/>
       <c r="B7" s="59" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C7" s="59">
-        <v>1</v>
+        <v>10000000</v>
       </c>
       <c r="D7" s="8">
-        <v>1000</v>
+        <f t="shared" ref="D7:D8" si="4">C7/E7/H7/I7</f>
+        <v>5000</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>137</v>
+      <c r="F7" s="60" t="s">
+        <v>287</v>
       </c>
       <c r="G7" s="8">
         <v>10000</v>
@@ -8983,40 +9693,47 @@
         <v>100</v>
       </c>
       <c r="J7" s="87">
-        <f t="shared" ref="J7:J8" si="4">L7/D7/H7</f>
-        <v>0.68586000000000003</v>
+        <f t="shared" ref="J7:J8" si="5">L7/C7*I7</f>
+        <v>0.51347199999999993</v>
       </c>
       <c r="K7" s="87">
-        <f t="shared" ref="K7:K8" si="5">1000/J7*I7</f>
-        <v>145802.35033388739</v>
+        <f t="shared" ref="K7:K8" si="6">1000/J7*I7</f>
+        <v>194752.58631434629</v>
       </c>
       <c r="L7" s="49">
-        <f t="shared" si="3"/>
-        <v>13717.2</v>
+        <f t="shared" ref="L7:L8" si="7">P7/O7</f>
+        <v>51347.199999999997</v>
+      </c>
+      <c r="M7" s="88">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="N7" s="24">
+        <v>87379</v>
       </c>
       <c r="O7">
         <v>5</v>
       </c>
       <c r="P7">
-        <v>68586</v>
+        <v>256736</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="47"/>
       <c r="B8" s="59" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C8" s="59">
-        <v>1</v>
+        <v>10000000</v>
       </c>
       <c r="D8" s="8">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>2500</v>
       </c>
       <c r="E8" s="11">
         <v>1</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>137</v>
+      <c r="F8" s="60" t="s">
+        <v>287</v>
       </c>
       <c r="G8" s="8">
         <v>10000</v>
@@ -9028,41 +9745,46 @@
         <v>200</v>
       </c>
       <c r="J8" s="87">
-        <f t="shared" si="4"/>
-        <v>1.4814099999999999</v>
+        <f t="shared" si="5"/>
+        <v>0.52026400000000006</v>
       </c>
       <c r="K8" s="87">
-        <f t="shared" si="5"/>
-        <v>135006.5140643036</v>
+        <f t="shared" si="6"/>
+        <v>384420.21742807492</v>
       </c>
       <c r="L8" s="49">
-        <f t="shared" si="3"/>
-        <v>29628.2</v>
+        <f t="shared" si="7"/>
+        <v>26013.200000000001</v>
+      </c>
+      <c r="M8" s="88">
+        <v>1.29</v>
+      </c>
+      <c r="N8" s="24">
+        <v>147950</v>
       </c>
       <c r="O8">
         <v>5</v>
       </c>
       <c r="P8">
-        <v>148141</v>
+        <v>130066</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="47"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="59" t="s">
         <v>251</v>
       </c>
       <c r="C9" s="59">
-        <v>6000000</v>
+        <v>1</v>
       </c>
       <c r="D9" s="8">
-        <f>C9/E9/H9/I9</f>
-        <v>300000</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>136</v>
+      <c r="F9" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="G9" s="8">
         <v>10000</v>
@@ -9074,28 +9796,22 @@
         <v>1</v>
       </c>
       <c r="J9" s="87">
-        <f t="shared" si="1"/>
-        <v>0.43163516666666668</v>
+        <f>L9/D9/H9</f>
+        <v>0.2455</v>
       </c>
       <c r="K9" s="87">
-        <f t="shared" si="2"/>
-        <v>2316.7713782974897</v>
+        <f>1000/J9*I9</f>
+        <v>4073.3197556008149</v>
       </c>
       <c r="L9" s="49">
         <f t="shared" si="3"/>
-        <v>2589811</v>
-      </c>
-      <c r="M9" s="88">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N9" s="24">
-        <v>1778</v>
+        <v>4910</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
       <c r="P9">
-        <v>2589811</v>
+        <v>4910</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -9104,17 +9820,16 @@
         <v>251</v>
       </c>
       <c r="C10" s="59">
-        <v>6000000</v>
+        <v>1</v>
       </c>
       <c r="D10" s="8">
-        <f>C10/E10/H10/I10</f>
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>136</v>
+      <c r="F10" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="G10" s="8">
         <v>10000</v>
@@ -9126,28 +9841,22 @@
         <v>100</v>
       </c>
       <c r="J10" s="87">
-        <f t="shared" si="1"/>
-        <v>0.41106999999999999</v>
+        <f t="shared" ref="J10:J11" si="8">L10/D10/H10</f>
+        <v>0.68586000000000003</v>
       </c>
       <c r="K10" s="87">
-        <f t="shared" si="2"/>
-        <v>243267.57000024326</v>
+        <f t="shared" ref="K10:K11" si="9">1000/J10*I10</f>
+        <v>145802.35033388739</v>
       </c>
       <c r="L10" s="49">
         <f t="shared" si="3"/>
-        <v>24664.2</v>
-      </c>
-      <c r="M10" s="88">
-        <v>0.97</v>
-      </c>
-      <c r="N10" s="24">
-        <v>98822</v>
+        <v>13717.2</v>
       </c>
       <c r="O10">
         <v>5</v>
       </c>
       <c r="P10">
-        <v>123321</v>
+        <v>68586</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -9156,17 +9865,16 @@
         <v>251</v>
       </c>
       <c r="C11" s="59">
-        <v>6000000</v>
+        <v>1</v>
       </c>
       <c r="D11" s="8">
-        <f>C11/E11/H11/I11</f>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>136</v>
+      <c r="F11" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="G11" s="8">
         <v>10000</v>
@@ -9178,28 +9886,22 @@
         <v>200</v>
       </c>
       <c r="J11" s="87">
-        <f t="shared" si="1"/>
-        <v>0.56644000000000005</v>
+        <f t="shared" si="8"/>
+        <v>1.4814099999999999</v>
       </c>
       <c r="K11" s="87">
-        <f t="shared" si="2"/>
-        <v>353082.40943436197</v>
+        <f t="shared" si="9"/>
+        <v>135006.5140643036</v>
       </c>
       <c r="L11" s="49">
         <f t="shared" si="3"/>
-        <v>16993.2</v>
-      </c>
-      <c r="M11" s="88">
-        <v>1.49</v>
-      </c>
-      <c r="N11" s="24">
-        <v>131567</v>
+        <v>29628.2</v>
       </c>
       <c r="O11">
         <v>5</v>
       </c>
       <c r="P11">
-        <v>84966</v>
+        <v>148141</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -9211,14 +9913,14 @@
         <v>6000000</v>
       </c>
       <c r="D12" s="8">
-        <f t="shared" si="0"/>
+        <f>C12/E12/H12/I12</f>
         <v>300000</v>
       </c>
       <c r="E12" s="11">
         <v>1</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>138</v>
+      <c r="F12" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="G12" s="8">
         <v>10000</v>
@@ -9231,27 +9933,27 @@
       </c>
       <c r="J12" s="87">
         <f t="shared" si="1"/>
-        <v>0.42765116666666669</v>
+        <v>0.43163516666666668</v>
       </c>
       <c r="K12" s="87">
         <f t="shared" si="2"/>
-        <v>2338.3544298370907</v>
+        <v>2316.7713782974897</v>
       </c>
       <c r="L12" s="49">
         <f t="shared" si="3"/>
-        <v>2565907</v>
+        <v>2589811</v>
       </c>
       <c r="M12" s="88">
-        <v>4.6000000000000001E-4</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N12" s="24">
-        <v>2173913</v>
+        <v>1778</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="P12">
-        <v>2565907</v>
+        <v>2589811</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -9263,14 +9965,14 @@
         <v>6000000</v>
       </c>
       <c r="D13" s="8">
-        <f t="shared" si="0"/>
+        <f>C13/E13/H13/I13</f>
         <v>3000</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>138</v>
+      <c r="F13" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="G13" s="8">
         <v>10000</v>
@@ -9283,27 +9985,27 @@
       </c>
       <c r="J13" s="87">
         <f t="shared" si="1"/>
-        <v>1.1403300000000001</v>
+        <v>0.41106999999999999</v>
       </c>
       <c r="K13" s="87">
         <f t="shared" si="2"/>
-        <v>87693.913165487174</v>
+        <v>243267.57000024326</v>
       </c>
       <c r="L13" s="49">
         <f t="shared" si="3"/>
-        <v>68419.8</v>
-      </c>
-      <c r="M13" s="89">
-        <v>3.2000000000000003E-4</v>
+        <v>24664.2</v>
+      </c>
+      <c r="M13" s="88">
+        <v>0.97</v>
       </c>
       <c r="N13" s="24">
-        <v>248138958</v>
+        <v>98822</v>
       </c>
       <c r="O13">
         <v>5</v>
       </c>
       <c r="P13">
-        <v>342099</v>
+        <v>123321</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -9315,14 +10017,14 @@
         <v>6000000</v>
       </c>
       <c r="D14" s="8">
-        <f t="shared" si="0"/>
+        <f>C14/E14/H14/I14</f>
         <v>1500</v>
       </c>
       <c r="E14" s="11">
         <v>1</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>138</v>
+      <c r="F14" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="G14" s="8">
         <v>10000</v>
@@ -9335,46 +10037,46 @@
       </c>
       <c r="J14" s="87">
         <f t="shared" si="1"/>
-        <v>2.0121666666666664</v>
+        <v>0.56644000000000005</v>
       </c>
       <c r="K14" s="87">
         <f t="shared" si="2"/>
-        <v>99395.344984676558</v>
+        <v>353082.40943436197</v>
       </c>
       <c r="L14" s="49">
         <f t="shared" si="3"/>
-        <v>60365</v>
-      </c>
-      <c r="M14" s="88" t="s">
-        <v>245</v>
+        <v>16993.2</v>
+      </c>
+      <c r="M14" s="88">
+        <v>1.49</v>
       </c>
       <c r="N14" s="24">
-        <v>50955414</v>
+        <v>131567</v>
       </c>
       <c r="O14">
         <v>5</v>
       </c>
       <c r="P14">
-        <v>301825</v>
+        <v>84966</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="47"/>
       <c r="B15" s="59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C15" s="59">
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="0"/>
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="E15" s="11">
         <v>1</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G15" s="8">
         <v>10000</v>
@@ -9387,46 +10089,46 @@
       </c>
       <c r="J15" s="87">
         <f t="shared" si="1"/>
-        <v>0.53008166666666667</v>
+        <v>0.42765116666666669</v>
       </c>
       <c r="K15" s="87">
         <f t="shared" si="2"/>
-        <v>1886.5017654512355</v>
+        <v>2338.3544298370907</v>
       </c>
       <c r="L15" s="49">
         <f t="shared" si="3"/>
-        <v>1590245</v>
+        <v>2565907</v>
       </c>
       <c r="M15" s="88">
-        <v>0.64</v>
+        <v>4.6000000000000001E-4</v>
       </c>
       <c r="N15" s="24">
-        <v>1562</v>
+        <v>2173913</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15">
-        <v>1590245</v>
+        <v>2565907</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="47"/>
       <c r="B16" s="59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C16" s="59">
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="E16" s="11">
         <v>1</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G16" s="8">
         <v>10000</v>
@@ -9439,46 +10141,46 @@
       </c>
       <c r="J16" s="87">
         <f t="shared" si="1"/>
-        <v>0.44889333333333326</v>
+        <v>1.1403300000000001</v>
       </c>
       <c r="K16" s="87">
         <f t="shared" si="2"/>
-        <v>222770.07158344972</v>
+        <v>87693.913165487174</v>
       </c>
       <c r="L16" s="49">
         <f t="shared" si="3"/>
-        <v>13466.8</v>
-      </c>
-      <c r="M16" s="88">
-        <v>1.19</v>
-      </c>
-      <c r="N16" s="90">
-        <v>82098</v>
+        <v>68419.8</v>
+      </c>
+      <c r="M16" s="89">
+        <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="N16" s="24">
+        <v>248138958</v>
       </c>
       <c r="O16">
         <v>5</v>
       </c>
       <c r="P16">
-        <v>67334</v>
+        <v>342099</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="47"/>
       <c r="B17" s="59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C17" s="59">
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="E17" s="11">
         <v>1</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G17" s="8">
         <v>10000</v>
@@ -9491,46 +10193,46 @@
       </c>
       <c r="J17" s="87">
         <f t="shared" si="1"/>
-        <v>0.59094666666666673</v>
+        <v>2.0121666666666664</v>
       </c>
       <c r="K17" s="87">
         <f t="shared" si="2"/>
-        <v>338440.01714762748</v>
+        <v>99395.344984676558</v>
       </c>
       <c r="L17" s="49">
         <f t="shared" si="3"/>
-        <v>8864.2000000000007</v>
-      </c>
-      <c r="M17" s="88">
-        <v>1.48</v>
+        <v>60365</v>
+      </c>
+      <c r="M17" s="88" t="s">
+        <v>245</v>
       </c>
       <c r="N17" s="24">
-        <v>130396</v>
+        <v>50955414</v>
       </c>
       <c r="O17">
         <v>5</v>
       </c>
       <c r="P17">
-        <v>44321</v>
+        <v>301825</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="47"/>
       <c r="B18" s="59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C18" s="59">
-        <v>10000000</v>
+        <v>3000000</v>
       </c>
       <c r="D18" s="8">
         <f t="shared" si="0"/>
-        <v>125000</v>
+        <v>150000</v>
       </c>
       <c r="E18" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G18" s="8">
         <v>10000</v>
@@ -9543,46 +10245,46 @@
       </c>
       <c r="J18" s="87">
         <f t="shared" si="1"/>
-        <v>0.21712890000000001</v>
+        <v>0.53008166666666667</v>
       </c>
       <c r="K18" s="87">
         <f t="shared" si="2"/>
-        <v>4605.5591862713809</v>
+        <v>1886.5017654512355</v>
       </c>
       <c r="L18" s="49">
-        <f>P18/O18</f>
-        <v>2171289</v>
+        <f t="shared" si="3"/>
+        <v>1590245</v>
       </c>
       <c r="M18" s="88">
-        <v>1.95</v>
-      </c>
-      <c r="N18" s="49">
-        <v>513</v>
+        <v>0.64</v>
+      </c>
+      <c r="N18" s="24">
+        <v>1562</v>
       </c>
       <c r="O18">
         <v>1</v>
       </c>
       <c r="P18">
-        <v>2171289</v>
+        <v>1590245</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="47"/>
       <c r="B19" s="59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C19" s="59">
-        <v>10000000</v>
+        <v>3000000</v>
       </c>
       <c r="D19" s="8">
         <f t="shared" si="0"/>
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="E19" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G19" s="8">
         <v>10000</v>
@@ -9595,46 +10297,46 @@
       </c>
       <c r="J19" s="87">
         <f t="shared" si="1"/>
-        <v>0.49641599999999997</v>
+        <v>0.44889333333333326</v>
       </c>
       <c r="K19" s="87">
         <f t="shared" si="2"/>
-        <v>201443.95023528655</v>
+        <v>222770.07158344972</v>
       </c>
       <c r="L19" s="49">
         <f t="shared" si="3"/>
-        <v>49641.599999999999</v>
+        <v>13466.8</v>
       </c>
       <c r="M19" s="88">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="N19" s="24">
-        <v>24057</v>
+        <v>1.19</v>
+      </c>
+      <c r="N19" s="90">
+        <v>82098</v>
       </c>
       <c r="O19">
         <v>5</v>
       </c>
       <c r="P19">
-        <v>248208</v>
+        <v>67334</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="47"/>
       <c r="B20" s="59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C20" s="59">
-        <v>10000000</v>
+        <v>3000000</v>
       </c>
       <c r="D20" s="8">
         <f t="shared" si="0"/>
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="E20" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G20" s="8">
         <v>10000</v>
@@ -9647,27 +10349,27 @@
       </c>
       <c r="J20" s="87">
         <f t="shared" si="1"/>
-        <v>0.62919999999999998</v>
+        <v>0.59094666666666673</v>
       </c>
       <c r="K20" s="87">
         <f t="shared" si="2"/>
-        <v>317863.95422759058</v>
+        <v>338440.01714762748</v>
       </c>
       <c r="L20" s="49">
         <f t="shared" si="3"/>
-        <v>31460</v>
+        <v>8864.2000000000007</v>
       </c>
       <c r="M20" s="88">
-        <v>4.6399999999999997</v>
+        <v>1.48</v>
       </c>
       <c r="N20" s="24">
-        <v>41304</v>
+        <v>130396</v>
       </c>
       <c r="O20">
         <v>5</v>
       </c>
       <c r="P20">
-        <v>157300</v>
+        <v>44321</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -9686,7 +10388,7 @@
         <v>4</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G21" s="8">
         <v>10000</v>
@@ -9699,27 +10401,27 @@
       </c>
       <c r="J21" s="87">
         <f t="shared" si="1"/>
-        <v>0.27144760000000001</v>
+        <v>0.21712890000000001</v>
       </c>
       <c r="K21" s="87">
         <f t="shared" si="2"/>
-        <v>3683.9522618730098</v>
+        <v>4605.5591862713809</v>
       </c>
       <c r="L21" s="49">
-        <f t="shared" si="3"/>
-        <v>2714476</v>
-      </c>
-      <c r="M21" s="91">
-        <v>0.97</v>
-      </c>
-      <c r="N21" s="24">
-        <v>1035</v>
+        <f>P21/O21</f>
+        <v>2171289</v>
+      </c>
+      <c r="M21" s="88">
+        <v>1.95</v>
+      </c>
+      <c r="N21" s="49">
+        <v>513</v>
       </c>
       <c r="O21">
         <v>1</v>
       </c>
       <c r="P21">
-        <v>2714476</v>
+        <v>2171289</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -9738,7 +10440,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G22" s="8">
         <v>10000</v>
@@ -9751,31 +10453,31 @@
       </c>
       <c r="J22" s="87">
         <f t="shared" si="1"/>
-        <v>0.56175200000000003</v>
+        <v>0.49641599999999997</v>
       </c>
       <c r="K22" s="87">
         <f t="shared" si="2"/>
-        <v>178014.49750067646</v>
+        <v>201443.95023528655</v>
       </c>
       <c r="L22" s="49">
         <f t="shared" si="3"/>
-        <v>56175.199999999997</v>
+        <v>49641.599999999999</v>
       </c>
       <c r="M22" s="88">
-        <v>1.47</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="N22" s="24">
-        <v>66736</v>
+        <v>24057</v>
       </c>
       <c r="O22">
         <v>5</v>
       </c>
       <c r="P22">
-        <v>280876</v>
+        <v>248208</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="65"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="59" t="s">
         <v>253</v>
       </c>
@@ -9790,7 +10492,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G23" s="8">
         <v>10000</v>
@@ -9803,59 +10505,215 @@
       </c>
       <c r="J23" s="87">
         <f t="shared" si="1"/>
-        <v>0.71556399999999998</v>
+        <v>0.62919999999999998</v>
       </c>
       <c r="K23" s="87">
         <f t="shared" si="2"/>
-        <v>279499.80714513309</v>
+        <v>317863.95422759058</v>
       </c>
       <c r="L23" s="49">
         <f t="shared" si="3"/>
-        <v>35778.199999999997</v>
+        <v>31460</v>
       </c>
       <c r="M23" s="88">
-        <v>1.85</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="N23" s="24">
-        <v>104678</v>
+        <v>41304</v>
       </c>
       <c r="O23">
         <v>5</v>
       </c>
       <c r="P23">
+        <v>157300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="47"/>
+      <c r="B24" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="C24" s="59">
+        <v>10000000</v>
+      </c>
+      <c r="D24" s="8">
+        <f t="shared" si="0"/>
+        <v>125000</v>
+      </c>
+      <c r="E24" s="11">
+        <v>4</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G24" s="8">
+        <v>10000</v>
+      </c>
+      <c r="H24" s="8">
+        <v>20</v>
+      </c>
+      <c r="I24" s="14">
+        <v>1</v>
+      </c>
+      <c r="J24" s="87">
+        <f t="shared" si="1"/>
+        <v>0.27144760000000001</v>
+      </c>
+      <c r="K24" s="87">
+        <f t="shared" si="2"/>
+        <v>3683.9522618730098</v>
+      </c>
+      <c r="L24" s="49">
+        <f t="shared" si="3"/>
+        <v>2714476</v>
+      </c>
+      <c r="M24" s="91">
+        <v>0.97</v>
+      </c>
+      <c r="N24" s="24">
+        <v>1035</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>2714476</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="47"/>
+      <c r="B25" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="C25" s="59">
+        <v>10000000</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+      <c r="E25" s="11">
+        <v>4</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="8">
+        <v>10000</v>
+      </c>
+      <c r="H25" s="8">
+        <v>20</v>
+      </c>
+      <c r="I25" s="14">
+        <v>100</v>
+      </c>
+      <c r="J25" s="87">
+        <f t="shared" si="1"/>
+        <v>0.56175200000000003</v>
+      </c>
+      <c r="K25" s="87">
+        <f t="shared" si="2"/>
+        <v>178014.49750067646</v>
+      </c>
+      <c r="L25" s="49">
+        <f t="shared" si="3"/>
+        <v>56175.199999999997</v>
+      </c>
+      <c r="M25" s="88">
+        <v>1.47</v>
+      </c>
+      <c r="N25" s="24">
+        <v>66736</v>
+      </c>
+      <c r="O25">
+        <v>5</v>
+      </c>
+      <c r="P25">
+        <v>280876</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="65"/>
+      <c r="B26" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="C26" s="59">
+        <v>10000000</v>
+      </c>
+      <c r="D26" s="8">
+        <f t="shared" si="0"/>
+        <v>625</v>
+      </c>
+      <c r="E26" s="11">
+        <v>4</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="8">
+        <v>10000</v>
+      </c>
+      <c r="H26" s="8">
+        <v>20</v>
+      </c>
+      <c r="I26" s="14">
+        <v>200</v>
+      </c>
+      <c r="J26" s="87">
+        <f t="shared" si="1"/>
+        <v>0.71556399999999998</v>
+      </c>
+      <c r="K26" s="87">
+        <f t="shared" si="2"/>
+        <v>279499.80714513309</v>
+      </c>
+      <c r="L26" s="49">
+        <f t="shared" si="3"/>
+        <v>35778.199999999997</v>
+      </c>
+      <c r="M26" s="88">
+        <v>1.85</v>
+      </c>
+      <c r="N26" s="24">
+        <v>104678</v>
+      </c>
+      <c r="O26">
+        <v>5</v>
+      </c>
+      <c r="P26">
         <v>178891</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="14.15" customHeight="1">
-      <c r="A24" s="95" t="s">
+    <row r="27" spans="1:16" ht="14.15" customHeight="1">
+      <c r="A27" s="95" t="s">
         <v>142</v>
       </c>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-    </row>
-    <row r="32" spans="1:16" ht="14.15" customHeight="1"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+    </row>
+    <row r="35" ht="14.15" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A27:K27"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ignite/性能测试/结果/分布式内存库测试用例（第四版IB）.xlsx
+++ b/ignite/性能测试/结果/分布式内存库测试用例（第四版IB）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="19400" windowHeight="11020" tabRatio="772" firstSheet="6" activeTab="15"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="19400" windowHeight="11020" tabRatio="772" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="(功能测试)" sheetId="1" r:id="rId1"/>
@@ -31,19 +31,11 @@
     <sheet name="持久化恢复" sheetId="10" r:id="rId22"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="336">
   <si>
     <t>序号</t>
   </si>
@@ -598,9 +590,6 @@
     <t>存储方式</t>
   </si>
   <si>
-    <t>测试对象大小</t>
-  </si>
-  <si>
     <t>内存占用</t>
   </si>
   <si>
@@ -608,12 +597,6 @@
   </si>
   <si>
     <t>java对象</t>
-  </si>
-  <si>
-    <t>2M</t>
-  </si>
-  <si>
-    <t>15.6M</t>
   </si>
   <si>
     <t>55.4M</t>
@@ -1541,10 +1524,6 @@
   </si>
   <si>
     <t>乐观锁 序列化隔离 两表操作 同key EP</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>大量事务失败</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1575,6 +1554,48 @@
         at org.apache.ignite.internal.util.StripedExecutor$Stripe.body(StripedExecutor.java:555)
         at org.apache.ignite.internal.util.worker.GridWorker.run(GridWorker.java:120)
         ... 1 more</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>膨胀率</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象大小</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.6M</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>单对象磁盘</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>单对象内存</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量事务失败
+一个事务的提交阶段检测到一个冲突，就会放弃这个事务，序列化隔离独有的检测</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1836,7 +1857,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2121,6 +2142,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2174,9 +2204,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2196,7 +2223,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2315,11 +2341,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="207644160"/>
-        <c:axId val="208954496"/>
+        <c:axId val="203125888"/>
+        <c:axId val="204432128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="207644160"/>
+        <c:axId val="203125888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2329,7 +2355,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208954496"/>
+        <c:crossAx val="204432128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2337,7 +2363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208954496"/>
+        <c:axId val="204432128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2348,14 +2374,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207644160"/>
+        <c:crossAx val="203125888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2385,7 +2410,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2504,11 +2528,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="209884672"/>
-        <c:axId val="209886208"/>
+        <c:axId val="205362304"/>
+        <c:axId val="205363840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="209884672"/>
+        <c:axId val="205362304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2518,7 +2542,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209886208"/>
+        <c:crossAx val="205363840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2526,7 +2550,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209886208"/>
+        <c:axId val="205363840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2537,14 +2561,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209884672"/>
+        <c:crossAx val="205362304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2579,7 +2602,7 @@
         <xdr:cNvPr id="2" name="图表 1" title="前2小时TPS">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2615,7 +2638,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3647,7 +3670,7 @@
       </c>
       <c r="E29" s="50"/>
       <c r="F29" s="54" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G29" s="50" t="s">
         <v>19</v>
@@ -3806,21 +3829,26 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="37.26953125" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.26953125" customWidth="1"/>
-    <col min="5" max="6" width="7.453125" customWidth="1"/>
-    <col min="7" max="10" width="9.26953125" customWidth="1"/>
+    <col min="5" max="5" width="7.453125" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" customWidth="1"/>
+    <col min="7" max="7" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" customWidth="1"/>
+    <col min="9" max="9" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" customWidth="1"/>
+    <col min="11" max="11" width="6.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="94" t="s">
         <v>169</v>
       </c>
@@ -3829,10 +3857,9 @@
       <c r="D1" s="94"/>
       <c r="E1" s="94"/>
       <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="43"/>
-    </row>
-    <row r="2" spans="1:10" ht="28">
+      <c r="G1" s="43"/>
+    </row>
+    <row r="2" spans="1:12" ht="42">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
@@ -3840,7 +3867,7 @@
         <v>143</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>116</v>
+        <v>331</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>170</v>
@@ -3851,110 +3878,143 @@
       <c r="F2" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="101">
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>126</v>
+      <c r="C3" s="59" t="s">
+        <v>330</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E3" s="8">
         <v>2000</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G3" s="11">
+      <c r="F3" s="11">
         <v>16393664</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="I3" s="11">
+      <c r="G3" s="59" t="s">
+        <v>332</v>
+      </c>
+      <c r="H3" s="11">
         <v>58092000</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="I3" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="J3" s="11">
+        <f>F3/E3</f>
+        <v>8196.8320000000003</v>
+      </c>
+      <c r="K3" s="11">
+        <f>H3/E3</f>
+        <v>29046</v>
+      </c>
+      <c r="L3" s="11">
+        <f>K3/3/2048</f>
+        <v>4.7275390625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="102"/>
       <c r="B4" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>126</v>
+      <c r="C4" s="59" t="s">
+        <v>330</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E4" s="8">
         <v>2000</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G4" s="11">
+      <c r="F4" s="11">
         <v>21598528</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="I4" s="11">
+      <c r="G4" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" s="11">
         <v>57324000</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="J4" s="11">
+        <f>F4/E4</f>
+        <v>10799.263999999999</v>
+      </c>
+      <c r="K4" s="11">
+        <f>H4/E4</f>
+        <v>28662</v>
+      </c>
+      <c r="L4" s="11">
+        <f t="shared" ref="L4:L5" si="0">K4/3/2048</f>
+        <v>4.6650390625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="103"/>
       <c r="B5" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>126</v>
+      <c r="C5" s="59" t="s">
+        <v>330</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E5" s="8">
         <v>2000</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="F5" s="11">
         <v>16215472</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="G5" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="11">
         <v>57480000</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>183</v>
+      <c r="I5" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="J5" s="11">
+        <f>F5/E5</f>
+        <v>8107.7359999999999</v>
+      </c>
+      <c r="K5" s="11">
+        <f>H5/E5</f>
+        <v>28740</v>
+      </c>
+      <c r="L5" s="11">
+        <f t="shared" si="0"/>
+        <v>4.677734375</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:A5"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -3969,11 +4029,11 @@
   </sheetPr>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="37.08984375" customWidth="1"/>
     <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
@@ -4009,10 +4069,10 @@
         <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>118</v>
@@ -4038,10 +4098,10 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="64" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C3" s="59">
         <v>10000000</v>
@@ -4064,27 +4124,27 @@
       </c>
       <c r="I3" s="49">
         <f t="shared" ref="I3:I14" si="0">K3/C3*H3</f>
-        <v>1E-3</v>
+        <v>0.30910399999999999</v>
       </c>
       <c r="J3" s="87">
         <f t="shared" ref="J3:J6" si="1">1000/I3*H3</f>
-        <v>1000000</v>
+        <v>3235.1570992287388</v>
       </c>
       <c r="K3" s="11">
         <f t="shared" ref="K3:K6" si="2">M3/L3</f>
-        <v>10000</v>
+        <v>3091040</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3" s="11">
-        <v>10000</v>
+      <c r="M3" s="114">
+        <v>3091040</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="47"/>
       <c r="B4" s="59" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C4" s="59">
         <v>10000000</v>
@@ -4107,27 +4167,27 @@
       </c>
       <c r="I4" s="49">
         <f t="shared" si="0"/>
-        <v>0.01</v>
+        <v>0.54743199999999992</v>
       </c>
       <c r="J4" s="87">
         <f t="shared" si="1"/>
-        <v>5000000</v>
+        <v>91335.544871326492</v>
       </c>
       <c r="K4" s="11">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>109486.39999999999</v>
       </c>
       <c r="L4">
         <v>5</v>
       </c>
-      <c r="M4" s="11">
-        <v>10000</v>
+      <c r="M4" s="114">
+        <v>547432</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="47"/>
       <c r="B5" s="59" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C5" s="59">
         <v>10000000</v>
@@ -4150,27 +4210,27 @@
       </c>
       <c r="I5" s="49">
         <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>0.86236400000000002</v>
       </c>
       <c r="J5" s="87">
         <f t="shared" si="1"/>
-        <v>5000000</v>
+        <v>115960.31374222487</v>
       </c>
       <c r="K5" s="11">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>86236.4</v>
       </c>
       <c r="L5">
         <v>5</v>
       </c>
-      <c r="M5" s="11">
-        <v>10000</v>
+      <c r="M5" s="114">
+        <v>431182</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="47"/>
       <c r="B6" s="59" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C6" s="59">
         <v>10000000</v>
@@ -4193,29 +4253,29 @@
       </c>
       <c r="I6" s="49">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>1.587672</v>
       </c>
       <c r="J6" s="87">
         <f t="shared" si="1"/>
-        <v>5000000</v>
+        <v>125970.60349996726</v>
       </c>
       <c r="K6" s="11">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>79383.600000000006</v>
       </c>
       <c r="L6">
         <v>5</v>
       </c>
-      <c r="M6" s="11">
-        <v>10000</v>
+      <c r="M6" s="114">
+        <v>396918</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="64" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C7" s="59">
         <v>10000000</v>
@@ -4238,27 +4298,27 @@
       </c>
       <c r="I7" s="49">
         <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>0.59561090000000005</v>
       </c>
       <c r="J7" s="87">
         <f t="shared" ref="J7:J10" si="4">1000/I7*H7</f>
-        <v>1000000</v>
+        <v>1678.9484544356053</v>
       </c>
       <c r="K7" s="11">
         <f>M7/L7</f>
-        <v>10000</v>
+        <v>5956109</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="M7" s="11">
-        <v>10000</v>
+      <c r="M7" s="114">
+        <v>5956109</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="47"/>
       <c r="B8" s="59" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C8" s="59">
         <v>10000000</v>
@@ -4281,27 +4341,27 @@
       </c>
       <c r="I8" s="49">
         <f t="shared" si="0"/>
-        <v>0.01</v>
+        <v>1.313131</v>
       </c>
       <c r="J8" s="87">
         <f t="shared" si="4"/>
-        <v>5000000</v>
+        <v>38076.932156806899</v>
       </c>
       <c r="K8" s="11">
         <f>M8/L8</f>
-        <v>2000</v>
+        <v>262626.2</v>
       </c>
       <c r="L8">
         <v>5</v>
       </c>
-      <c r="M8" s="11">
-        <v>10000</v>
+      <c r="M8" s="114">
+        <v>1313131</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="47"/>
       <c r="B9" s="59" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C9" s="59">
         <v>10000000</v>
@@ -4324,27 +4384,27 @@
       </c>
       <c r="I9" s="49">
         <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>2.8263879999999997</v>
       </c>
       <c r="J9" s="87">
         <f t="shared" si="4"/>
-        <v>5000000</v>
+        <v>35380.846507981216</v>
       </c>
       <c r="K9" s="11">
         <f t="shared" ref="K9:K10" si="6">M9/L9</f>
-        <v>2000</v>
+        <v>282638.8</v>
       </c>
       <c r="L9">
         <v>5</v>
       </c>
-      <c r="M9" s="11">
-        <v>10000</v>
+      <c r="M9" s="114">
+        <v>1413194</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="47"/>
       <c r="B10" s="59" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C10" s="59">
         <v>10000000</v>
@@ -4367,29 +4427,29 @@
       </c>
       <c r="I10" s="49">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>5.3968040000000004</v>
       </c>
       <c r="J10" s="87">
         <f t="shared" si="4"/>
-        <v>5000000</v>
+        <v>37058.970457329931</v>
       </c>
       <c r="K10" s="11">
         <f t="shared" si="6"/>
-        <v>2000</v>
+        <v>269840.2</v>
       </c>
       <c r="L10">
         <v>5</v>
       </c>
-      <c r="M10" s="11">
-        <v>10000</v>
+      <c r="M10" s="114">
+        <v>1349201</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="64" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C11" s="59">
         <v>10000000</v>
@@ -4412,27 +4472,27 @@
       </c>
       <c r="I11" s="49">
         <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>0.28776770000000002</v>
       </c>
       <c r="J11" s="87">
         <f t="shared" ref="J11:J14" si="7">1000/I11*H11</f>
-        <v>1000000</v>
+        <v>3475.0251678697782</v>
       </c>
       <c r="K11" s="11">
         <f t="shared" ref="K11:K14" si="8">M11/L11</f>
-        <v>10000</v>
+        <v>2877677</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11" s="11">
-        <v>10000</v>
+      <c r="M11" s="114">
+        <v>2877677</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="47"/>
       <c r="B12" s="59" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C12" s="59">
         <v>10000000</v>
@@ -4455,27 +4515,27 @@
       </c>
       <c r="I12" s="49">
         <f t="shared" si="0"/>
-        <v>0.01</v>
+        <v>0.53397499999999998</v>
       </c>
       <c r="J12" s="87">
         <f t="shared" si="7"/>
-        <v>5000000</v>
+        <v>93637.342572217807</v>
       </c>
       <c r="K12" s="11">
         <f t="shared" si="8"/>
-        <v>2000</v>
+        <v>106795</v>
       </c>
       <c r="L12">
         <v>5</v>
       </c>
-      <c r="M12" s="11">
-        <v>10000</v>
+      <c r="M12" s="114">
+        <v>533975</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="47"/>
       <c r="B13" s="59" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C13" s="59">
         <v>10000000</v>
@@ -4498,27 +4558,27 @@
       </c>
       <c r="I13" s="49">
         <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>0.79185000000000005</v>
       </c>
       <c r="J13" s="87">
         <f t="shared" si="7"/>
-        <v>5000000</v>
+        <v>126286.54416871881</v>
       </c>
       <c r="K13" s="11">
         <f t="shared" si="8"/>
-        <v>2000</v>
+        <v>79185</v>
       </c>
       <c r="L13">
         <v>5</v>
       </c>
-      <c r="M13" s="11">
-        <v>10000</v>
+      <c r="M13" s="114">
+        <v>395925</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="47"/>
       <c r="B14" s="59" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C14" s="59">
         <v>10000000</v>
@@ -4541,29 +4601,29 @@
       </c>
       <c r="I14" s="49">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>1.5551039999999998</v>
       </c>
       <c r="J14" s="87">
         <f t="shared" si="7"/>
-        <v>5000000</v>
+        <v>128608.76185772786</v>
       </c>
       <c r="K14" s="11">
         <f t="shared" si="8"/>
-        <v>2000</v>
+        <v>77755.199999999997</v>
       </c>
       <c r="L14">
         <v>5</v>
       </c>
-      <c r="M14" s="11">
-        <v>10000</v>
+      <c r="M14" s="114">
+        <v>388776</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="64" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C15" s="59">
         <v>10000000</v>
@@ -4586,27 +4646,27 @@
       </c>
       <c r="I15" s="49">
         <f t="shared" ref="I15:I18" si="10">K15/C15*H15</f>
-        <v>1E-3</v>
+        <v>0.49991099999999999</v>
       </c>
       <c r="J15" s="87">
         <f t="shared" ref="J15:J18" si="11">1000/I15*H15</f>
-        <v>1000000</v>
+        <v>2000.3560633792815</v>
       </c>
       <c r="K15" s="11">
         <f t="shared" ref="K15:K18" si="12">M15/L15</f>
-        <v>10000</v>
+        <v>4999110</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
-      <c r="M15" s="11">
-        <v>10000</v>
+      <c r="M15" s="114">
+        <v>4999110</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="47"/>
       <c r="B16" s="59" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C16" s="59">
         <v>10000000</v>
@@ -4629,27 +4689,27 @@
       </c>
       <c r="I16" s="49">
         <f t="shared" si="10"/>
-        <v>0.01</v>
+        <v>0.63417400000000002</v>
       </c>
       <c r="J16" s="87">
         <f t="shared" si="11"/>
-        <v>5000000</v>
+        <v>78842.715090811034</v>
       </c>
       <c r="K16" s="11">
         <f t="shared" si="12"/>
-        <v>2000</v>
+        <v>126834.8</v>
       </c>
       <c r="L16">
         <v>5</v>
       </c>
-      <c r="M16" s="11">
-        <v>10000</v>
+      <c r="M16" s="114">
+        <v>634174</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="47"/>
       <c r="B17" s="59" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C17" s="59">
         <v>10000000</v>
@@ -4672,27 +4732,27 @@
       </c>
       <c r="I17" s="49">
         <f t="shared" si="10"/>
-        <v>0.02</v>
+        <v>1.304122</v>
       </c>
       <c r="J17" s="87">
         <f t="shared" si="11"/>
-        <v>5000000</v>
+        <v>76679.942520715093</v>
       </c>
       <c r="K17" s="11">
         <f t="shared" si="12"/>
-        <v>2000</v>
+        <v>130412.2</v>
       </c>
       <c r="L17">
         <v>5</v>
       </c>
-      <c r="M17" s="11">
-        <v>10000</v>
+      <c r="M17" s="114">
+        <v>652061</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="47"/>
       <c r="B18" s="59" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C18" s="59">
         <v>10000000</v>
@@ -4715,21 +4775,21 @@
       </c>
       <c r="I18" s="49">
         <f t="shared" si="10"/>
-        <v>0.04</v>
+        <v>2.7858040000000006</v>
       </c>
       <c r="J18" s="87">
         <f t="shared" si="11"/>
-        <v>5000000</v>
+        <v>71792.559706282264</v>
       </c>
       <c r="K18" s="11">
         <f t="shared" si="12"/>
-        <v>2000</v>
+        <v>139290.20000000001</v>
       </c>
       <c r="L18">
         <v>5</v>
       </c>
-      <c r="M18" s="11">
-        <v>10000</v>
+      <c r="M18" s="114">
+        <v>696451</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="14.25" customHeight="1">
@@ -4789,8 +4849,8 @@
   </sheetPr>
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O52" sqref="O52"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O61" sqref="O61:O64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4802,6 +4862,7 @@
     <col min="7" max="7" width="15.08984375" customWidth="1"/>
     <col min="12" max="12" width="11.6328125" customWidth="1"/>
     <col min="14" max="14" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" customHeight="1">
@@ -4828,13 +4889,13 @@
         <v>117</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>118</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>119</v>
@@ -4857,10 +4918,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="42" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C3" s="8">
         <v>10000000</v>
@@ -4873,10 +4934,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G3" s="60" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H3" s="8">
         <v>20</v>
@@ -4905,7 +4966,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="B4" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C4" s="8">
         <v>10000000</v>
@@ -4918,7 +4979,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>127</v>
@@ -4950,7 +5011,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="B5" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C5" s="8">
         <v>10000000</v>
@@ -4963,7 +5024,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>127</v>
@@ -4995,7 +5056,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="B6" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C6" s="8">
         <v>10000000</v>
@@ -5008,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="59" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>127</v>
@@ -5040,7 +5101,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C7" s="8">
         <v>10000000</v>
@@ -5053,10 +5114,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H7" s="8">
         <v>20</v>
@@ -5085,7 +5146,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="B8" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C8" s="8">
         <v>10000000</v>
@@ -5098,10 +5159,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G8" s="60" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H8" s="8">
         <v>20</v>
@@ -5130,7 +5191,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="B9" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C9" s="8">
         <v>10000000</v>
@@ -5143,10 +5204,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G9" s="60" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H9" s="8">
         <v>20</v>
@@ -5175,7 +5236,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="B10" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C10" s="8">
         <v>10000000</v>
@@ -5188,7 +5249,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="59" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>127</v>
@@ -5220,7 +5281,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C11" s="8">
         <v>10000000</v>
@@ -5233,7 +5294,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>127</v>
@@ -5265,7 +5326,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="B12" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C12" s="8">
         <v>10000000</v>
@@ -5278,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>127</v>
@@ -5310,7 +5371,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="B13" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C13" s="8">
         <v>10000000</v>
@@ -5323,7 +5384,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="59" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>127</v>
@@ -5355,7 +5416,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="B14" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C14" s="8">
         <v>10000000</v>
@@ -5368,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="59" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>127</v>
@@ -5400,7 +5461,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C15" s="8">
         <v>10000000</v>
@@ -5413,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="59" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>127</v>
@@ -5445,7 +5506,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="B16" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C16" s="8">
         <v>10000000</v>
@@ -5458,7 +5519,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>127</v>
@@ -5490,7 +5551,7 @@
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C17" s="8">
         <v>10000000</v>
@@ -5503,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="59" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>127</v>
@@ -5535,7 +5596,7 @@
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C18" s="8">
         <v>10000000</v>
@@ -5548,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="59" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>127</v>
@@ -5580,7 +5641,7 @@
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C19" s="8">
         <v>10000000</v>
@@ -5593,7 +5654,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="59" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>127</v>
@@ -5625,7 +5686,7 @@
     </row>
     <row r="20" spans="2:14">
       <c r="B20" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C20" s="8">
         <v>10000000</v>
@@ -5638,7 +5699,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="59" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>127</v>
@@ -5670,7 +5731,7 @@
     </row>
     <row r="21" spans="2:14">
       <c r="B21" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C21" s="8">
         <v>10000000</v>
@@ -5683,7 +5744,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="59" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>127</v>
@@ -5715,7 +5776,7 @@
     </row>
     <row r="22" spans="2:14">
       <c r="B22" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C22" s="8">
         <v>1000</v>
@@ -5727,7 +5788,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="59" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>127</v>
@@ -5759,7 +5820,7 @@
     </row>
     <row r="23" spans="2:14">
       <c r="B23" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C23" s="8">
         <v>1000</v>
@@ -5771,7 +5832,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="59" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>127</v>
@@ -5803,7 +5864,7 @@
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C24" s="8">
         <v>1000</v>
@@ -5815,7 +5876,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="59" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>127</v>
@@ -5847,7 +5908,7 @@
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C25" s="8">
         <v>1000</v>
@@ -5859,7 +5920,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="59" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>127</v>
@@ -5891,7 +5952,7 @@
     </row>
     <row r="26" spans="2:14">
       <c r="B26" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C26" s="8">
         <v>1000</v>
@@ -5903,7 +5964,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="59" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>127</v>
@@ -5935,7 +5996,7 @@
     </row>
     <row r="27" spans="2:14">
       <c r="B27" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C27" s="8">
         <v>1000</v>
@@ -5947,7 +6008,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="59" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>127</v>
@@ -5979,7 +6040,7 @@
     </row>
     <row r="28" spans="2:14">
       <c r="B28" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C28" s="8">
         <v>1000</v>
@@ -5991,7 +6052,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="59" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>127</v>
@@ -6023,7 +6084,7 @@
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C29" s="8">
         <v>1000</v>
@@ -6035,7 +6096,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="59" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>127</v>
@@ -6067,7 +6128,7 @@
     </row>
     <row r="30" spans="2:14">
       <c r="B30" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C30" s="8">
         <v>1000</v>
@@ -6079,7 +6140,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="59" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>127</v>
@@ -6111,7 +6172,7 @@
     </row>
     <row r="31" spans="2:14">
       <c r="B31" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C31" s="8">
         <v>1000</v>
@@ -6123,7 +6184,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="59" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>127</v>
@@ -6155,7 +6216,7 @@
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C32" s="8">
         <v>1000</v>
@@ -6167,7 +6228,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="59" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>127</v>
@@ -6199,7 +6260,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="B33" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C33" s="8">
         <v>1000</v>
@@ -6211,7 +6272,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="59" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>127</v>
@@ -6243,10 +6304,10 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="42" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B34" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C34" s="8">
         <v>10000000</v>
@@ -6259,10 +6320,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="59" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G34" s="60" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H34" s="8">
         <v>20</v>
@@ -6291,7 +6352,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="B35" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C35" s="8">
         <v>10000000</v>
@@ -6304,7 +6365,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="59" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>127</v>
@@ -6336,7 +6397,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="B36" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C36" s="8">
         <v>10000000</v>
@@ -6349,7 +6410,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="59" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G36" s="13" t="s">
         <v>127</v>
@@ -6381,7 +6442,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="B37" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C37" s="8">
         <v>10000000</v>
@@ -6394,7 +6455,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="59" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>127</v>
@@ -6426,7 +6487,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="B38" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C38" s="8">
         <v>10000000</v>
@@ -6439,10 +6500,10 @@
         <v>1</v>
       </c>
       <c r="F38" s="59" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G38" s="60" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H38" s="8">
         <v>20</v>
@@ -6471,7 +6532,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="B39" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C39" s="8">
         <v>10000000</v>
@@ -6484,10 +6545,10 @@
         <v>1</v>
       </c>
       <c r="F39" s="59" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G39" s="60" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H39" s="8">
         <v>20</v>
@@ -6516,7 +6577,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="B40" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C40" s="8">
         <v>10000000</v>
@@ -6529,10 +6590,10 @@
         <v>1</v>
       </c>
       <c r="F40" s="59" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G40" s="60" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H40" s="8">
         <v>20</v>
@@ -6561,7 +6622,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="B41" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C41" s="8">
         <v>10000000</v>
@@ -6574,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="59" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>127</v>
@@ -6606,7 +6667,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="B42" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C42" s="8">
         <v>10000000</v>
@@ -6619,7 +6680,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="59" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G42" s="13" t="s">
         <v>127</v>
@@ -6651,7 +6712,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="B43" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C43" s="8">
         <v>10000000</v>
@@ -6664,7 +6725,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="59" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G43" s="13" t="s">
         <v>127</v>
@@ -6696,7 +6757,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="B44" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C44" s="8">
         <v>10000000</v>
@@ -6709,7 +6770,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="59" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G44" s="13" t="s">
         <v>127</v>
@@ -6741,7 +6802,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="B45" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C45" s="8">
         <v>10000000</v>
@@ -6754,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="59" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G45" s="13" t="s">
         <v>127</v>
@@ -6786,7 +6847,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="B46" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C46" s="8">
         <v>10000000</v>
@@ -6799,7 +6860,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="59" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>127</v>
@@ -6831,7 +6892,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="B47" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C47" s="8">
         <v>10000000</v>
@@ -6844,7 +6905,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="59" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G47" s="13" t="s">
         <v>127</v>
@@ -6876,7 +6937,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="B48" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C48" s="8">
         <v>10000000</v>
@@ -6889,7 +6950,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="59" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G48" s="13" t="s">
         <v>127</v>
@@ -6921,7 +6982,7 @@
     </row>
     <row r="49" spans="2:15">
       <c r="B49" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C49" s="8">
         <v>10000000</v>
@@ -6934,7 +6995,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="59" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G49" s="13" t="s">
         <v>127</v>
@@ -6966,7 +7027,7 @@
     </row>
     <row r="50" spans="2:15">
       <c r="B50" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C50" s="8">
         <v>10000000</v>
@@ -6979,7 +7040,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="59" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G50" s="13" t="s">
         <v>127</v>
@@ -7011,7 +7072,7 @@
     </row>
     <row r="51" spans="2:15">
       <c r="B51" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C51" s="8">
         <v>10000000</v>
@@ -7024,7 +7085,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="59" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>127</v>
@@ -7056,7 +7117,7 @@
     </row>
     <row r="52" spans="2:15">
       <c r="B52" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C52" s="8">
         <v>10000000</v>
@@ -7069,7 +7130,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="59" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G52" s="13" t="s">
         <v>127</v>
@@ -7101,7 +7162,7 @@
     </row>
     <row r="53" spans="2:15">
       <c r="B53" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C53" s="8">
         <v>1000</v>
@@ -7113,7 +7174,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="59" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G53" s="13" t="s">
         <v>127</v>
@@ -7145,7 +7206,7 @@
     </row>
     <row r="54" spans="2:15">
       <c r="B54" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C54" s="8">
         <v>1000</v>
@@ -7157,7 +7218,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="59" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G54" s="13" t="s">
         <v>127</v>
@@ -7189,7 +7250,7 @@
     </row>
     <row r="55" spans="2:15">
       <c r="B55" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C55" s="8">
         <v>1000</v>
@@ -7201,7 +7262,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="59" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G55" s="13" t="s">
         <v>127</v>
@@ -7233,7 +7294,7 @@
     </row>
     <row r="56" spans="2:15">
       <c r="B56" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C56" s="8">
         <v>1000</v>
@@ -7245,7 +7306,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="59" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G56" s="13" t="s">
         <v>127</v>
@@ -7277,7 +7338,7 @@
     </row>
     <row r="57" spans="2:15">
       <c r="B57" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C57" s="8">
         <v>1000</v>
@@ -7289,7 +7350,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="59" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G57" s="13" t="s">
         <v>127</v>
@@ -7321,7 +7382,7 @@
     </row>
     <row r="58" spans="2:15">
       <c r="B58" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C58" s="8">
         <v>1000</v>
@@ -7333,7 +7394,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="59" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G58" s="13" t="s">
         <v>127</v>
@@ -7365,7 +7426,7 @@
     </row>
     <row r="59" spans="2:15">
       <c r="B59" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C59" s="8">
         <v>1000</v>
@@ -7377,7 +7438,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="59" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G59" s="13" t="s">
         <v>127</v>
@@ -7409,7 +7470,7 @@
     </row>
     <row r="60" spans="2:15">
       <c r="B60" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C60" s="8">
         <v>1000</v>
@@ -7421,7 +7482,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="59" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G60" s="13" t="s">
         <v>127</v>
@@ -7453,7 +7514,7 @@
     </row>
     <row r="61" spans="2:15">
       <c r="B61" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C61" s="8">
         <v>1000</v>
@@ -7465,7 +7526,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="59" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G61" s="13" t="s">
         <v>127</v>
@@ -7494,13 +7555,13 @@
       <c r="N61">
         <v>10000</v>
       </c>
-      <c r="O61" s="42" t="s">
-        <v>331</v>
+      <c r="O61" s="116" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="2:15">
       <c r="B62" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C62" s="8">
         <v>1000</v>
@@ -7512,7 +7573,7 @@
         <v>1</v>
       </c>
       <c r="F62" s="59" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>127</v>
@@ -7541,13 +7602,11 @@
       <c r="N62">
         <v>10000</v>
       </c>
-      <c r="O62" s="42" t="s">
-        <v>331</v>
-      </c>
+      <c r="O62" s="115"/>
     </row>
     <row r="63" spans="2:15">
       <c r="B63" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C63" s="8">
         <v>1000</v>
@@ -7559,7 +7618,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="59" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G63" s="13" t="s">
         <v>127</v>
@@ -7588,13 +7647,11 @@
       <c r="N63">
         <v>10000</v>
       </c>
-      <c r="O63" s="42" t="s">
-        <v>331</v>
-      </c>
+      <c r="O63" s="115"/>
     </row>
     <row r="64" spans="2:15">
       <c r="B64" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C64" s="8">
         <v>1000</v>
@@ -7606,7 +7663,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="59" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G64" s="13" t="s">
         <v>127</v>
@@ -7635,13 +7692,11 @@
       <c r="N64">
         <v>10000</v>
       </c>
-      <c r="O64" s="42" t="s">
-        <v>331</v>
-      </c>
+      <c r="O64" s="115"/>
     </row>
     <row r="65" spans="1:16" ht="156" customHeight="1">
       <c r="A65" s="107" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B65" s="107"/>
       <c r="C65" s="107"/>
@@ -7660,9 +7715,10 @@
       <c r="P65" s="107"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A65:P65"/>
+    <mergeCell ref="O61:O64"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7677,8 +7733,8 @@
   </sheetPr>
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N62" sqref="N62"/>
+    <sheetView topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -7694,7 +7750,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" customHeight="1">
       <c r="A1" s="106" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B1" s="106"/>
       <c r="C1" s="106"/>
@@ -7718,13 +7774,13 @@
         <v>117</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>118</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>119</v>
@@ -7747,10 +7803,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="42" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C3" s="8">
         <v>10000000</v>
@@ -7763,10 +7819,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G3" s="60" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H3" s="8">
         <v>20</v>
@@ -7795,7 +7851,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="B4" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C4" s="8">
         <v>10000000</v>
@@ -7808,7 +7864,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>127</v>
@@ -7840,7 +7896,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="B5" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C5" s="8">
         <v>10000000</v>
@@ -7853,7 +7909,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>127</v>
@@ -7885,7 +7941,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="B6" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C6" s="8">
         <v>10000000</v>
@@ -7898,7 +7954,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="59" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>127</v>
@@ -7931,7 +7987,7 @@
     <row r="7" spans="1:14">
       <c r="A7" s="42"/>
       <c r="B7" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C7" s="8">
         <v>10000000</v>
@@ -7944,10 +8000,10 @@
         <v>10</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H7" s="8">
         <v>20</v>
@@ -7976,7 +8032,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="B8" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C8" s="8">
         <v>10000000</v>
@@ -7989,7 +8045,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>127</v>
@@ -8021,7 +8077,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="B9" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C9" s="8">
         <v>10000000</v>
@@ -8034,7 +8090,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>127</v>
@@ -8066,7 +8122,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="B10" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C10" s="8">
         <v>10000000</v>
@@ -8079,7 +8135,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="59" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>127</v>
@@ -8111,7 +8167,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C11" s="8">
         <v>10000000</v>
@@ -8124,7 +8180,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>127</v>
@@ -8156,7 +8212,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="B12" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C12" s="8">
         <v>10000000</v>
@@ -8169,7 +8225,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>127</v>
@@ -8201,7 +8257,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="B13" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C13" s="8">
         <v>10000000</v>
@@ -8214,7 +8270,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="59" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>127</v>
@@ -8246,7 +8302,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="B14" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C14" s="8">
         <v>10000000</v>
@@ -8259,7 +8315,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="59" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>127</v>
@@ -8291,7 +8347,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C15" s="8">
         <v>10000000</v>
@@ -8304,7 +8360,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="59" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>127</v>
@@ -8336,7 +8392,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="B16" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C16" s="8">
         <v>10000000</v>
@@ -8349,7 +8405,7 @@
         <v>10</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>127</v>
@@ -8381,7 +8437,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="B17" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C17" s="8">
         <v>10000000</v>
@@ -8394,7 +8450,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="59" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>127</v>
@@ -8426,7 +8482,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="B18" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C18" s="8">
         <v>10000000</v>
@@ -8439,7 +8495,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="59" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>127</v>
@@ -8471,7 +8527,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="B19" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C19" s="8">
         <v>10000000</v>
@@ -8484,7 +8540,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="59" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>127</v>
@@ -8516,7 +8572,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="B20" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C20" s="8">
         <v>10000000</v>
@@ -8529,7 +8585,7 @@
         <v>10</v>
       </c>
       <c r="F20" s="59" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>127</v>
@@ -8561,7 +8617,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="B21" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C21" s="8">
         <v>10000000</v>
@@ -8574,7 +8630,7 @@
         <v>10</v>
       </c>
       <c r="F21" s="59" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>127</v>
@@ -8606,7 +8662,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="B22" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C22" s="8">
         <v>10000000</v>
@@ -8619,7 +8675,7 @@
         <v>10</v>
       </c>
       <c r="F22" s="59" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>127</v>
@@ -8652,7 +8708,7 @@
     <row r="23" spans="1:14">
       <c r="A23" s="42"/>
       <c r="B23" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C23" s="8">
         <v>10000000</v>
@@ -8665,10 +8721,10 @@
         <v>25</v>
       </c>
       <c r="F23" s="59" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G23" s="60" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H23" s="8">
         <v>20</v>
@@ -8697,7 +8753,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="B24" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C24" s="8">
         <v>10000000</v>
@@ -8710,7 +8766,7 @@
         <v>25</v>
       </c>
       <c r="F24" s="59" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>127</v>
@@ -8742,7 +8798,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="B25" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C25" s="8">
         <v>10000000</v>
@@ -8755,7 +8811,7 @@
         <v>25</v>
       </c>
       <c r="F25" s="59" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>127</v>
@@ -8787,7 +8843,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="B26" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C26" s="8">
         <v>10000000</v>
@@ -8800,7 +8856,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="59" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>127</v>
@@ -8833,7 +8889,7 @@
     <row r="27" spans="1:14">
       <c r="A27" s="42"/>
       <c r="B27" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C27" s="8">
         <v>10000000</v>
@@ -8846,10 +8902,10 @@
         <v>25</v>
       </c>
       <c r="F27" s="59" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G27" s="60" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H27" s="8">
         <v>20</v>
@@ -8878,7 +8934,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="B28" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C28" s="8">
         <v>10000000</v>
@@ -8891,7 +8947,7 @@
         <v>25</v>
       </c>
       <c r="F28" s="59" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>127</v>
@@ -8923,7 +8979,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="B29" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C29" s="8">
         <v>10000000</v>
@@ -8936,7 +8992,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="59" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>127</v>
@@ -8968,7 +9024,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="B30" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C30" s="8">
         <v>10000000</v>
@@ -8981,7 +9037,7 @@
         <v>25</v>
       </c>
       <c r="F30" s="59" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>127</v>
@@ -9013,7 +9069,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="B31" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C31" s="8">
         <v>10000000</v>
@@ -9026,7 +9082,7 @@
         <v>25</v>
       </c>
       <c r="F31" s="59" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>127</v>
@@ -9058,7 +9114,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="B32" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C32" s="8">
         <v>10000000</v>
@@ -9071,7 +9127,7 @@
         <v>25</v>
       </c>
       <c r="F32" s="59" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>127</v>
@@ -9103,7 +9159,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="B33" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C33" s="8">
         <v>10000000</v>
@@ -9116,7 +9172,7 @@
         <v>25</v>
       </c>
       <c r="F33" s="59" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>127</v>
@@ -9148,7 +9204,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="B34" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C34" s="8">
         <v>10000000</v>
@@ -9161,7 +9217,7 @@
         <v>25</v>
       </c>
       <c r="F34" s="59" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>127</v>
@@ -9193,7 +9249,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="B35" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C35" s="8">
         <v>10000000</v>
@@ -9206,7 +9262,7 @@
         <v>25</v>
       </c>
       <c r="F35" s="59" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>127</v>
@@ -9238,7 +9294,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="B36" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C36" s="8">
         <v>10000000</v>
@@ -9251,7 +9307,7 @@
         <v>25</v>
       </c>
       <c r="F36" s="59" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G36" s="13" t="s">
         <v>127</v>
@@ -9283,7 +9339,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="B37" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C37" s="8">
         <v>10000000</v>
@@ -9296,7 +9352,7 @@
         <v>25</v>
       </c>
       <c r="F37" s="59" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>127</v>
@@ -9328,7 +9384,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="B38" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C38" s="8">
         <v>10000000</v>
@@ -9341,7 +9397,7 @@
         <v>25</v>
       </c>
       <c r="F38" s="59" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>127</v>
@@ -9373,7 +9429,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="B39" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C39" s="8">
         <v>10000000</v>
@@ -9386,7 +9442,7 @@
         <v>25</v>
       </c>
       <c r="F39" s="59" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G39" s="13" t="s">
         <v>127</v>
@@ -9418,7 +9474,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="B40" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C40" s="8">
         <v>10000000</v>
@@ -9431,7 +9487,7 @@
         <v>25</v>
       </c>
       <c r="F40" s="59" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G40" s="13" t="s">
         <v>127</v>
@@ -9463,7 +9519,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="B41" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C41" s="8">
         <v>10000000</v>
@@ -9476,7 +9532,7 @@
         <v>25</v>
       </c>
       <c r="F41" s="59" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>127</v>
@@ -9508,7 +9564,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="B42" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C42" s="8">
         <v>10000000</v>
@@ -9521,7 +9577,7 @@
         <v>25</v>
       </c>
       <c r="F42" s="59" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G42" s="13" t="s">
         <v>127</v>
@@ -9554,7 +9610,7 @@
     <row r="43" spans="1:14">
       <c r="A43" s="42"/>
       <c r="B43" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C43" s="8">
         <v>10000000</v>
@@ -9567,10 +9623,10 @@
         <v>50</v>
       </c>
       <c r="F43" s="59" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G43" s="60" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H43" s="8">
         <v>20</v>
@@ -9599,7 +9655,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="B44" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C44" s="8">
         <v>10000000</v>
@@ -9612,7 +9668,7 @@
         <v>50</v>
       </c>
       <c r="F44" s="59" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G44" s="13" t="s">
         <v>127</v>
@@ -9644,7 +9700,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="B45" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C45" s="8">
         <v>10000000</v>
@@ -9657,7 +9713,7 @@
         <v>50</v>
       </c>
       <c r="F45" s="59" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G45" s="13" t="s">
         <v>127</v>
@@ -9689,7 +9745,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="B46" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C46" s="8">
         <v>10000000</v>
@@ -9702,7 +9758,7 @@
         <v>50</v>
       </c>
       <c r="F46" s="59" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>127</v>
@@ -9735,7 +9791,7 @@
     <row r="47" spans="1:14">
       <c r="A47" s="42"/>
       <c r="B47" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C47" s="8">
         <v>10000000</v>
@@ -9748,10 +9804,10 @@
         <v>50</v>
       </c>
       <c r="F47" s="59" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G47" s="60" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H47" s="8">
         <v>20</v>
@@ -9780,7 +9836,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="B48" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C48" s="8">
         <v>10000000</v>
@@ -9793,7 +9849,7 @@
         <v>50</v>
       </c>
       <c r="F48" s="59" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G48" s="13" t="s">
         <v>127</v>
@@ -9825,7 +9881,7 @@
     </row>
     <row r="49" spans="2:14">
       <c r="B49" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C49" s="8">
         <v>10000000</v>
@@ -9838,7 +9894,7 @@
         <v>50</v>
       </c>
       <c r="F49" s="59" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G49" s="13" t="s">
         <v>127</v>
@@ -9870,7 +9926,7 @@
     </row>
     <row r="50" spans="2:14">
       <c r="B50" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C50" s="8">
         <v>10000000</v>
@@ -9883,7 +9939,7 @@
         <v>50</v>
       </c>
       <c r="F50" s="59" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G50" s="13" t="s">
         <v>127</v>
@@ -9915,7 +9971,7 @@
     </row>
     <row r="51" spans="2:14">
       <c r="B51" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C51" s="8">
         <v>10000000</v>
@@ -9928,7 +9984,7 @@
         <v>50</v>
       </c>
       <c r="F51" s="59" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>127</v>
@@ -9960,7 +10016,7 @@
     </row>
     <row r="52" spans="2:14">
       <c r="B52" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C52" s="8">
         <v>10000000</v>
@@ -9973,7 +10029,7 @@
         <v>50</v>
       </c>
       <c r="F52" s="59" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G52" s="13" t="s">
         <v>127</v>
@@ -10005,7 +10061,7 @@
     </row>
     <row r="53" spans="2:14">
       <c r="B53" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C53" s="8">
         <v>10000000</v>
@@ -10018,7 +10074,7 @@
         <v>50</v>
       </c>
       <c r="F53" s="59" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G53" s="13" t="s">
         <v>127</v>
@@ -10050,7 +10106,7 @@
     </row>
     <row r="54" spans="2:14">
       <c r="B54" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C54" s="8">
         <v>10000000</v>
@@ -10063,7 +10119,7 @@
         <v>50</v>
       </c>
       <c r="F54" s="59" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G54" s="13" t="s">
         <v>127</v>
@@ -10095,7 +10151,7 @@
     </row>
     <row r="55" spans="2:14">
       <c r="B55" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C55" s="8">
         <v>10000000</v>
@@ -10108,7 +10164,7 @@
         <v>50</v>
       </c>
       <c r="F55" s="59" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G55" s="13" t="s">
         <v>127</v>
@@ -10140,7 +10196,7 @@
     </row>
     <row r="56" spans="2:14">
       <c r="B56" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C56" s="8">
         <v>10000000</v>
@@ -10153,7 +10209,7 @@
         <v>50</v>
       </c>
       <c r="F56" s="59" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G56" s="13" t="s">
         <v>127</v>
@@ -10185,7 +10241,7 @@
     </row>
     <row r="57" spans="2:14">
       <c r="B57" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C57" s="8">
         <v>10000000</v>
@@ -10198,7 +10254,7 @@
         <v>50</v>
       </c>
       <c r="F57" s="59" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G57" s="13" t="s">
         <v>127</v>
@@ -10230,7 +10286,7 @@
     </row>
     <row r="58" spans="2:14">
       <c r="B58" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C58" s="8">
         <v>10000000</v>
@@ -10243,7 +10299,7 @@
         <v>50</v>
       </c>
       <c r="F58" s="59" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G58" s="13" t="s">
         <v>127</v>
@@ -10275,7 +10331,7 @@
     </row>
     <row r="59" spans="2:14">
       <c r="B59" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C59" s="8">
         <v>10000000</v>
@@ -10288,7 +10344,7 @@
         <v>50</v>
       </c>
       <c r="F59" s="59" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G59" s="13" t="s">
         <v>127</v>
@@ -10320,7 +10376,7 @@
     </row>
     <row r="60" spans="2:14">
       <c r="B60" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C60" s="8">
         <v>10000000</v>
@@ -10333,7 +10389,7 @@
         <v>50</v>
       </c>
       <c r="F60" s="59" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G60" s="13" t="s">
         <v>127</v>
@@ -10365,7 +10421,7 @@
     </row>
     <row r="61" spans="2:14">
       <c r="B61" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C61" s="8">
         <v>10000000</v>
@@ -10378,7 +10434,7 @@
         <v>50</v>
       </c>
       <c r="F61" s="59" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G61" s="13" t="s">
         <v>127</v>
@@ -10410,7 +10466,7 @@
     </row>
     <row r="62" spans="2:14">
       <c r="B62" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C62" s="8">
         <v>10000000</v>
@@ -10423,7 +10479,7 @@
         <v>50</v>
       </c>
       <c r="F62" s="59" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>127</v>
@@ -10504,19 +10560,19 @@
     </row>
     <row r="2" spans="1:17" ht="56">
       <c r="A2" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>118</v>
@@ -10680,7 +10736,7 @@
       <c r="O5" s="42"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="42" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="19" customFormat="1">
@@ -10756,36 +10812,36 @@
     </row>
     <row r="2" spans="1:7" ht="28">
       <c r="A2" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>117</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="109" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D3" s="41">
         <v>10000000</v>
@@ -10794,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G3" s="41">
         <v>76681</v>
@@ -10803,10 +10859,10 @@
     <row r="4" spans="1:7">
       <c r="A4" s="110"/>
       <c r="B4" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D4" s="41">
         <v>10000000</v>
@@ -10815,7 +10871,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G4" s="41">
         <v>25530</v>
@@ -10824,10 +10880,10 @@
     <row r="5" spans="1:7">
       <c r="A5" s="110"/>
       <c r="B5" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D5" s="41">
         <v>10000000</v>
@@ -10836,7 +10892,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G5" s="41">
         <v>130112</v>
@@ -10845,10 +10901,10 @@
     <row r="6" spans="1:7">
       <c r="A6" s="111"/>
       <c r="B6" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D6" s="41">
         <v>10000000</v>
@@ -10857,7 +10913,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G6" s="41">
         <v>38444</v>
@@ -10876,8 +10932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -10919,10 +10975,10 @@
         <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>118</v>
@@ -10954,7 +11010,7 @@
         <v>125</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C3" s="59">
         <v>10000000</v>
@@ -10967,7 +11023,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G3" s="8">
         <v>10000</v>
@@ -11000,7 +11056,7 @@
     <row r="4" spans="1:14">
       <c r="A4" s="47"/>
       <c r="B4" s="59" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C4" s="59">
         <v>10000000</v>
@@ -11013,7 +11069,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G4" s="8">
         <v>10000</v>
@@ -11046,7 +11102,7 @@
     <row r="5" spans="1:14">
       <c r="A5" s="47"/>
       <c r="B5" s="59" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C5" s="59">
         <v>10000000</v>
@@ -11059,7 +11115,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="60" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G5" s="8">
         <v>10000</v>
@@ -11094,7 +11150,7 @@
         <v>125</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C6" s="59">
         <v>10000000</v>
@@ -11107,7 +11163,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G6" s="8">
         <v>10000</v>
@@ -11140,7 +11196,7 @@
     <row r="7" spans="1:14">
       <c r="A7" s="47"/>
       <c r="B7" s="59" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C7" s="59">
         <v>10000000</v>
@@ -11153,7 +11209,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G7" s="8">
         <v>10000</v>
@@ -11186,7 +11242,7 @@
     <row r="8" spans="1:14">
       <c r="A8" s="47"/>
       <c r="B8" s="59" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C8" s="59">
         <v>10000000</v>
@@ -11199,7 +11255,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G8" s="8">
         <v>10000</v>
@@ -11234,7 +11290,7 @@
         <v>125</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C9" s="59">
         <v>10000000</v>
@@ -11247,7 +11303,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G9" s="8">
         <v>10000</v>
@@ -11280,7 +11336,7 @@
     <row r="10" spans="1:14">
       <c r="A10" s="47"/>
       <c r="B10" s="59" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C10" s="59">
         <v>10000000</v>
@@ -11293,7 +11349,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G10" s="8">
         <v>10000</v>
@@ -11326,7 +11382,7 @@
     <row r="11" spans="1:14">
       <c r="A11" s="47"/>
       <c r="B11" s="59" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C11" s="59">
         <v>10000000</v>
@@ -11339,7 +11395,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="60" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G11" s="8">
         <v>10000</v>
@@ -11374,7 +11430,7 @@
         <v>125</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C12" s="59">
         <v>10000000</v>
@@ -11387,7 +11443,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="60" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G12" s="8">
         <v>10000</v>
@@ -11420,7 +11476,7 @@
     <row r="13" spans="1:14">
       <c r="A13" s="47"/>
       <c r="B13" s="59" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C13" s="59">
         <v>10000000</v>
@@ -11433,7 +11489,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="60" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G13" s="8">
         <v>10000</v>
@@ -11466,7 +11522,7 @@
     <row r="14" spans="1:14">
       <c r="A14" s="47"/>
       <c r="B14" s="59" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C14" s="59">
         <v>10000000</v>
@@ -11479,7 +11535,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G14" s="8">
         <v>10000</v>
@@ -11567,7 +11623,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14.25" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
@@ -11580,19 +11636,19 @@
     </row>
     <row r="2" spans="1:12" ht="28">
       <c r="A2" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>120</v>
@@ -11612,13 +11668,13 @@
     </row>
     <row r="3" spans="1:12" s="19" customFormat="1">
       <c r="A3" s="27" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D3" s="13">
         <v>10000000</v>
@@ -11654,10 +11710,10 @@
     <row r="4" spans="1:12" s="19" customFormat="1">
       <c r="A4" s="29"/>
       <c r="B4" s="13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D4" s="13">
         <v>10000000</v>
@@ -11693,10 +11749,10 @@
     <row r="5" spans="1:12" s="19" customFormat="1">
       <c r="A5" s="29"/>
       <c r="B5" s="13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D5" s="13">
         <v>10000000</v>
@@ -11732,10 +11788,10 @@
     <row r="6" spans="1:12" s="19" customFormat="1">
       <c r="A6" s="29"/>
       <c r="B6" s="13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D6" s="13">
         <v>10000000</v>
@@ -11771,10 +11827,10 @@
     <row r="7" spans="1:12" s="19" customFormat="1">
       <c r="A7" s="29"/>
       <c r="B7" s="13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D7" s="13">
         <v>10000000</v>
@@ -11810,10 +11866,10 @@
     <row r="8" spans="1:12" s="19" customFormat="1">
       <c r="A8" s="29"/>
       <c r="B8" s="13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D8" s="13">
         <v>10000000</v>
@@ -11849,10 +11905,10 @@
     <row r="9" spans="1:12" s="19" customFormat="1">
       <c r="A9" s="29"/>
       <c r="B9" s="13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D9" s="13">
         <v>10000000</v>
@@ -11888,10 +11944,10 @@
     <row r="10" spans="1:12" s="67" customFormat="1">
       <c r="A10" s="69"/>
       <c r="B10" s="13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D10" s="31">
         <v>10000000</v>
@@ -11927,10 +11983,10 @@
     <row r="11" spans="1:12" s="19" customFormat="1">
       <c r="A11" s="29"/>
       <c r="B11" s="13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D11" s="13">
         <v>10000000</v>
@@ -11966,10 +12022,10 @@
     <row r="12" spans="1:12" s="19" customFormat="1">
       <c r="A12" s="29"/>
       <c r="B12" s="13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D12" s="13">
         <v>10000000</v>
@@ -12005,10 +12061,10 @@
     <row r="13" spans="1:12" s="19" customFormat="1">
       <c r="A13" s="29"/>
       <c r="B13" s="13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D13" s="13">
         <v>10000000</v>
@@ -12044,10 +12100,10 @@
     <row r="14" spans="1:12">
       <c r="A14" s="30"/>
       <c r="B14" s="31" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D14" s="13">
         <v>10000000</v>
@@ -12083,10 +12139,10 @@
     <row r="15" spans="1:12">
       <c r="A15" s="30"/>
       <c r="B15" s="31" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D15" s="13">
         <v>10000000</v>
@@ -12122,10 +12178,10 @@
     <row r="16" spans="1:12">
       <c r="A16" s="30"/>
       <c r="B16" s="31" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D16" s="13">
         <v>10000000</v>
@@ -12161,10 +12217,10 @@
     <row r="17" spans="1:12">
       <c r="A17" s="30"/>
       <c r="B17" s="31" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D17" s="13">
         <v>10000000</v>
@@ -12200,10 +12256,10 @@
     <row r="18" spans="1:12">
       <c r="A18" s="30"/>
       <c r="B18" s="31" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D18" s="13">
         <v>10000000</v>
@@ -12239,10 +12295,10 @@
     <row r="19" spans="1:12">
       <c r="A19" s="30"/>
       <c r="B19" s="31" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D19" s="13">
         <v>10000000</v>
@@ -12278,10 +12334,10 @@
     <row r="20" spans="1:12">
       <c r="A20" s="30"/>
       <c r="B20" s="31" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D20" s="13">
         <v>10000000</v>
@@ -12317,10 +12373,10 @@
     <row r="21" spans="1:12" s="67" customFormat="1">
       <c r="A21" s="69"/>
       <c r="B21" s="31" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D21" s="31">
         <v>10000000</v>
@@ -12356,10 +12412,10 @@
     <row r="22" spans="1:12" s="19" customFormat="1">
       <c r="A22" s="29"/>
       <c r="B22" s="31" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D22" s="13">
         <v>10000000</v>
@@ -12395,10 +12451,10 @@
     <row r="23" spans="1:12" s="19" customFormat="1">
       <c r="A23" s="29"/>
       <c r="B23" s="31" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D23" s="13">
         <v>10000000</v>
@@ -12434,10 +12490,10 @@
     <row r="24" spans="1:12" s="19" customFormat="1">
       <c r="A24" s="29"/>
       <c r="B24" s="31" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D24" s="13">
         <v>10000000</v>
@@ -12522,19 +12578,19 @@
     </row>
     <row r="2" spans="1:16" ht="56">
       <c r="A2" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>118</v>
@@ -12569,10 +12625,10 @@
         <v>165</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D3" s="20">
         <v>10000000</v>
@@ -12584,7 +12640,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H3" s="20">
         <v>20</v>
@@ -12616,10 +12672,10 @@
     <row r="4" spans="1:16">
       <c r="A4" s="102"/>
       <c r="B4" s="20" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D4" s="20">
         <v>10000000</v>
@@ -12631,7 +12687,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H4" s="20">
         <v>20</v>
@@ -12663,10 +12719,10 @@
     <row r="5" spans="1:16" s="19" customFormat="1">
       <c r="A5" s="102"/>
       <c r="B5" s="20" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D5" s="20">
         <v>10000000</v>
@@ -12678,7 +12734,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H5" s="20">
         <v>20</v>
@@ -12710,10 +12766,10 @@
     <row r="6" spans="1:16">
       <c r="A6" s="102"/>
       <c r="B6" s="20" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D6" s="20">
         <v>10000000</v>
@@ -12725,7 +12781,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H6" s="20">
         <v>20</v>
@@ -12757,10 +12813,10 @@
     <row r="7" spans="1:16">
       <c r="A7" s="102"/>
       <c r="B7" s="20" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D7" s="20">
         <v>10000000</v>
@@ -12772,7 +12828,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H7" s="20">
         <v>20</v>
@@ -12804,10 +12860,10 @@
     <row r="8" spans="1:16" s="19" customFormat="1">
       <c r="A8" s="102"/>
       <c r="B8" s="20" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D8" s="20">
         <v>10000000</v>
@@ -12819,7 +12875,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H8" s="20">
         <v>20</v>
@@ -12894,10 +12950,10 @@
     </row>
     <row r="2" spans="1:13" ht="42">
       <c r="A2" s="15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>117</v>
@@ -12929,10 +12985,10 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="101" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C3" s="8">
         <v>10000000</v>
@@ -12970,7 +13026,7 @@
     <row r="4" spans="1:13">
       <c r="A4" s="102"/>
       <c r="B4" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C4" s="8">
         <v>10000000</v>
@@ -13008,7 +13064,7 @@
     <row r="5" spans="1:13">
       <c r="A5" s="103"/>
       <c r="B5" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C5" s="8">
         <v>10000000</v>
@@ -13045,10 +13101,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="101" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C6" s="8">
         <v>10000000</v>
@@ -13086,7 +13142,7 @@
     <row r="7" spans="1:13">
       <c r="A7" s="102"/>
       <c r="B7" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C7" s="8">
         <v>10000000</v>
@@ -13124,7 +13180,7 @@
     <row r="8" spans="1:13">
       <c r="A8" s="103"/>
       <c r="B8" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C8" s="8">
         <v>10000000</v>
@@ -13161,7 +13217,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="113" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B9" s="113"/>
       <c r="C9" s="113"/>
@@ -13193,7 +13249,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -13232,10 +13288,10 @@
         <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>118</v>
@@ -13259,18 +13315,18 @@
         <v>124</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="64" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C3" s="59">
         <v>10000000</v>
@@ -13319,7 +13375,7 @@
     <row r="4" spans="1:15">
       <c r="A4" s="47"/>
       <c r="B4" s="59" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C4" s="59">
         <v>10000000</v>
@@ -13368,7 +13424,7 @@
     <row r="5" spans="1:15">
       <c r="A5" s="47"/>
       <c r="B5" s="59" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C5" s="59">
         <v>10000000</v>
@@ -13417,7 +13473,7 @@
     <row r="6" spans="1:15">
       <c r="A6" s="47"/>
       <c r="B6" s="59" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C6" s="59">
         <v>10000000</v>
@@ -13466,7 +13522,7 @@
     <row r="7" spans="1:15">
       <c r="A7" s="47"/>
       <c r="B7" s="59" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C7" s="59">
         <v>1</v>
@@ -13478,7 +13534,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G7" s="8">
         <v>20</v>
@@ -13510,7 +13566,7 @@
     <row r="8" spans="1:15">
       <c r="A8" s="47"/>
       <c r="B8" s="59" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C8" s="59">
         <v>1</v>
@@ -13554,7 +13610,7 @@
     <row r="9" spans="1:15">
       <c r="A9" s="47"/>
       <c r="B9" s="59" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C9" s="59">
         <v>1</v>
@@ -13598,7 +13654,7 @@
     <row r="10" spans="1:15">
       <c r="A10" s="47"/>
       <c r="B10" s="59" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C10" s="59">
         <v>1</v>
@@ -13641,10 +13697,10 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="64" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C11" s="59">
         <v>6000000</v>
@@ -13689,7 +13745,7 @@
     <row r="12" spans="1:15">
       <c r="A12" s="47"/>
       <c r="B12" s="59" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C12" s="59">
         <v>6000000</v>
@@ -13734,7 +13790,7 @@
     <row r="13" spans="1:15">
       <c r="A13" s="47"/>
       <c r="B13" s="59" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C13" s="59">
         <v>6000000</v>
@@ -13779,7 +13835,7 @@
     <row r="14" spans="1:15">
       <c r="A14" s="47"/>
       <c r="B14" s="59" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C14" s="59">
         <v>6000000</v>
@@ -13824,7 +13880,7 @@
     <row r="15" spans="1:15">
       <c r="A15" s="47"/>
       <c r="B15" s="59" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C15" s="59">
         <v>6000000</v>
@@ -13837,7 +13893,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="60" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G15" s="8">
         <v>20</v>
@@ -13873,7 +13929,7 @@
     <row r="16" spans="1:15">
       <c r="A16" s="47"/>
       <c r="B16" s="59" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C16" s="59">
         <v>6000000</v>
@@ -13922,7 +13978,7 @@
     <row r="17" spans="1:15">
       <c r="A17" s="47"/>
       <c r="B17" s="59" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C17" s="59">
         <v>6000000</v>
@@ -13971,7 +14027,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="47"/>
       <c r="B18" s="59" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C18" s="59">
         <v>6000000</v>
@@ -14020,7 +14076,7 @@
     <row r="19" spans="1:15">
       <c r="A19" s="47"/>
       <c r="B19" s="59" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C19" s="59">
         <v>3000000</v>
@@ -14069,7 +14125,7 @@
     <row r="20" spans="1:15">
       <c r="A20" s="47"/>
       <c r="B20" s="59" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C20" s="59">
         <v>3000000</v>
@@ -14118,7 +14174,7 @@
     <row r="21" spans="1:15">
       <c r="A21" s="47"/>
       <c r="B21" s="59" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C21" s="59">
         <v>3000000</v>
@@ -14167,7 +14223,7 @@
     <row r="22" spans="1:15">
       <c r="A22" s="47"/>
       <c r="B22" s="59" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C22" s="59">
         <v>3000000</v>
@@ -14216,7 +14272,7 @@
     <row r="23" spans="1:15">
       <c r="A23" s="47"/>
       <c r="B23" s="59" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C23" s="59">
         <v>10000000</v>
@@ -14265,7 +14321,7 @@
     <row r="24" spans="1:15">
       <c r="A24" s="47"/>
       <c r="B24" s="59" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C24" s="59">
         <v>10000000</v>
@@ -14314,7 +14370,7 @@
     <row r="25" spans="1:15">
       <c r="A25" s="47"/>
       <c r="B25" s="59" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C25" s="59">
         <v>10000000</v>
@@ -14363,7 +14419,7 @@
     <row r="26" spans="1:15">
       <c r="A26" s="47"/>
       <c r="B26" s="59" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C26" s="59">
         <v>10000000</v>
@@ -14412,7 +14468,7 @@
     <row r="27" spans="1:15">
       <c r="A27" s="47"/>
       <c r="B27" s="59" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C27" s="59">
         <v>10000000</v>
@@ -14461,7 +14517,7 @@
     <row r="28" spans="1:15">
       <c r="A28" s="47"/>
       <c r="B28" s="59" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C28" s="59">
         <v>10000000</v>
@@ -14510,7 +14566,7 @@
     <row r="29" spans="1:15">
       <c r="A29" s="47"/>
       <c r="B29" s="59" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C29" s="59">
         <v>10000000</v>
@@ -14559,7 +14615,7 @@
     <row r="30" spans="1:15">
       <c r="A30" s="65"/>
       <c r="B30" s="59" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C30" s="59">
         <v>10000000</v>
@@ -14663,7 +14719,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" customHeight="1">
       <c r="A1" s="106" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B1" s="106"/>
       <c r="C1" s="106"/>
@@ -14690,7 +14746,7 @@
         <v>118</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>119</v>
@@ -14722,7 +14778,7 @@
         <v>125</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C3" s="8">
         <v>10000000</v>
@@ -14731,7 +14787,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>127</v>
@@ -14765,7 +14821,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="B4" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C4" s="8">
         <v>10000000</v>
@@ -14774,7 +14830,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>127</v>
@@ -14808,7 +14864,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="B5" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C5" s="8">
         <v>10000000</v>
@@ -14817,7 +14873,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>127</v>
@@ -14851,7 +14907,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="B6" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C6" s="8">
         <v>10000000</v>
@@ -14860,7 +14916,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>127</v>
@@ -14894,7 +14950,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="B7" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C7" s="8">
         <v>10000000</v>
@@ -14903,7 +14959,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>136</v>
@@ -14937,7 +14993,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C8" s="8">
         <v>10000000</v>
@@ -14946,7 +15002,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>136</v>
@@ -14980,7 +15036,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C9" s="8">
         <v>10000000</v>
@@ -14989,7 +15045,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>136</v>
@@ -15026,7 +15082,7 @@
         <v>125</v>
       </c>
       <c r="B10" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C10" s="8">
         <v>10000000</v>
@@ -15035,7 +15091,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>127</v>
@@ -15069,7 +15125,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C11" s="8">
         <v>10000000</v>
@@ -15078,7 +15134,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="59" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>127</v>
@@ -15112,7 +15168,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C12" s="8">
         <v>10000000</v>
@@ -15121,7 +15177,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>127</v>
@@ -15155,7 +15211,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C13" s="8">
         <v>10000000</v>
@@ -15164,7 +15220,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>127</v>
@@ -15198,7 +15254,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="B14" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C14" s="8">
         <v>10000000</v>
@@ -15207,7 +15263,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>136</v>
@@ -15241,7 +15297,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="B15" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C15" s="8">
         <v>10000000</v>
@@ -15250,7 +15306,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>136</v>
@@ -15284,7 +15340,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C16" s="8">
         <v>10000000</v>
@@ -15293,7 +15349,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>136</v>
@@ -15355,7 +15411,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" customHeight="1">
       <c r="A1" s="106" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B1" s="106"/>
       <c r="C1" s="106"/>
@@ -15382,7 +15438,7 @@
         <v>118</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>119</v>
@@ -15414,7 +15470,7 @@
         <v>125</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C3" s="8">
         <v>10000000</v>
@@ -15423,7 +15479,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>127</v>
@@ -15457,7 +15513,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="B4" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C4" s="8">
         <v>10000000</v>
@@ -15466,7 +15522,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>127</v>
@@ -15500,7 +15556,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="B5" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C5" s="8">
         <v>10000000</v>
@@ -15509,7 +15565,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>127</v>
@@ -15543,7 +15599,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="B6" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C6" s="8">
         <v>10000000</v>
@@ -15552,7 +15608,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>127</v>
@@ -15586,7 +15642,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="B7" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C7" s="8">
         <v>10000000</v>
@@ -15595,7 +15651,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>136</v>
@@ -15629,7 +15685,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C8" s="8">
         <v>10000000</v>
@@ -15638,7 +15694,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>136</v>
@@ -15672,7 +15728,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C9" s="8">
         <v>10000000</v>
@@ -15681,7 +15737,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>136</v>
@@ -15715,7 +15771,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C10" s="8">
         <v>10000000</v>
@@ -15724,7 +15780,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>127</v>
@@ -15758,7 +15814,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C11" s="8">
         <v>10000000</v>
@@ -15767,7 +15823,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>127</v>
@@ -15801,7 +15857,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C12" s="8">
         <v>10000000</v>
@@ -15810,7 +15866,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>127</v>
@@ -15844,7 +15900,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C13" s="8">
         <v>10000000</v>
@@ -15853,7 +15909,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>127</v>
@@ -15887,7 +15943,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="B14" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C14" s="8">
         <v>10000000</v>
@@ -15896,7 +15952,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>136</v>
@@ -15930,7 +15986,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="B15" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C15" s="8">
         <v>10000000</v>
@@ -15939,7 +15995,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>136</v>
@@ -15973,7 +16029,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C16" s="8">
         <v>10000000</v>
@@ -15982,7 +16038,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>136</v>
@@ -16057,21 +16113,21 @@
         <v>117</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C3" s="8">
         <v>10000000</v>
@@ -16084,10 +16140,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C4" s="8">
         <v>10000000</v>
@@ -16100,15 +16156,15 @@
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="42" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C5" s="8">
         <v>10000000</v>
@@ -16121,7 +16177,7 @@
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="42" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -16183,10 +16239,10 @@
         <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>118</v>
@@ -16213,10 +16269,10 @@
         <v>135</v>
       </c>
       <c r="M2" s="86" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="N2" s="86" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -16224,7 +16280,7 @@
         <v>125</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C3" s="59">
         <v>10000000</v>
@@ -16276,7 +16332,7 @@
     <row r="4" spans="1:16">
       <c r="A4" s="47"/>
       <c r="B4" s="59" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C4" s="59">
         <v>10000000</v>
@@ -16328,7 +16384,7 @@
     <row r="5" spans="1:16">
       <c r="A5" s="47"/>
       <c r="B5" s="59" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C5" s="59">
         <v>10000000</v>
@@ -16382,7 +16438,7 @@
         <v>125</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C6" s="59">
         <v>10000000</v>
@@ -16395,7 +16451,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G6" s="8">
         <v>10000</v>
@@ -16434,7 +16490,7 @@
     <row r="7" spans="1:16">
       <c r="A7" s="47"/>
       <c r="B7" s="59" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C7" s="59">
         <v>10000000</v>
@@ -16447,7 +16503,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G7" s="8">
         <v>10000</v>
@@ -16486,7 +16542,7 @@
     <row r="8" spans="1:16">
       <c r="A8" s="47"/>
       <c r="B8" s="59" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C8" s="59">
         <v>10000000</v>
@@ -16499,7 +16555,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G8" s="8">
         <v>10000</v>
@@ -16538,7 +16594,7 @@
     <row r="9" spans="1:16">
       <c r="A9" s="75"/>
       <c r="B9" s="59" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C9" s="59">
         <v>1</v>
@@ -16583,7 +16639,7 @@
     <row r="10" spans="1:16">
       <c r="A10" s="47"/>
       <c r="B10" s="59" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C10" s="59">
         <v>1</v>
@@ -16628,7 +16684,7 @@
     <row r="11" spans="1:16">
       <c r="A11" s="47"/>
       <c r="B11" s="59" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C11" s="59">
         <v>1</v>
@@ -16673,7 +16729,7 @@
     <row r="12" spans="1:16">
       <c r="A12" s="47"/>
       <c r="B12" s="59" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C12" s="59">
         <v>6000000</v>
@@ -16725,7 +16781,7 @@
     <row r="13" spans="1:16">
       <c r="A13" s="47"/>
       <c r="B13" s="59" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C13" s="59">
         <v>6000000</v>
@@ -16777,7 +16833,7 @@
     <row r="14" spans="1:16">
       <c r="A14" s="47"/>
       <c r="B14" s="59" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C14" s="59">
         <v>6000000</v>
@@ -16829,7 +16885,7 @@
     <row r="15" spans="1:16">
       <c r="A15" s="47"/>
       <c r="B15" s="59" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C15" s="59">
         <v>6000000</v>
@@ -16881,7 +16937,7 @@
     <row r="16" spans="1:16">
       <c r="A16" s="47"/>
       <c r="B16" s="59" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C16" s="59">
         <v>6000000</v>
@@ -16933,7 +16989,7 @@
     <row r="17" spans="1:16">
       <c r="A17" s="47"/>
       <c r="B17" s="59" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C17" s="59">
         <v>6000000</v>
@@ -16970,7 +17026,7 @@
         <v>60365</v>
       </c>
       <c r="M17" s="88" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N17" s="24">
         <v>50955414</v>
@@ -16985,7 +17041,7 @@
     <row r="18" spans="1:16">
       <c r="A18" s="47"/>
       <c r="B18" s="59" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C18" s="59">
         <v>3000000</v>
@@ -17037,7 +17093,7 @@
     <row r="19" spans="1:16">
       <c r="A19" s="47"/>
       <c r="B19" s="59" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C19" s="59">
         <v>3000000</v>
@@ -17089,7 +17145,7 @@
     <row r="20" spans="1:16">
       <c r="A20" s="47"/>
       <c r="B20" s="59" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C20" s="59">
         <v>3000000</v>
@@ -17141,7 +17197,7 @@
     <row r="21" spans="1:16">
       <c r="A21" s="47"/>
       <c r="B21" s="59" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C21" s="59">
         <v>10000000</v>
@@ -17193,7 +17249,7 @@
     <row r="22" spans="1:16">
       <c r="A22" s="47"/>
       <c r="B22" s="59" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C22" s="59">
         <v>10000000</v>
@@ -17245,7 +17301,7 @@
     <row r="23" spans="1:16">
       <c r="A23" s="47"/>
       <c r="B23" s="59" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C23" s="59">
         <v>10000000</v>
@@ -17297,7 +17353,7 @@
     <row r="24" spans="1:16">
       <c r="A24" s="47"/>
       <c r="B24" s="59" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C24" s="59">
         <v>10000000</v>
@@ -17349,7 +17405,7 @@
     <row r="25" spans="1:16">
       <c r="A25" s="47"/>
       <c r="B25" s="59" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C25" s="59">
         <v>10000000</v>
@@ -17401,7 +17457,7 @@
     <row r="26" spans="1:16">
       <c r="A26" s="65"/>
       <c r="B26" s="59" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C26" s="59">
         <v>10000000</v>
@@ -17535,10 +17591,10 @@
         <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>118</v>
@@ -17565,18 +17621,18 @@
         <v>135</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="97" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C3" s="59">
         <v>6000000</v>
@@ -17628,7 +17684,7 @@
     <row r="4" spans="1:16">
       <c r="A4" s="98"/>
       <c r="B4" s="59" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C4" s="59">
         <v>6000000</v>
@@ -17680,7 +17736,7 @@
     <row r="5" spans="1:16">
       <c r="A5" s="98"/>
       <c r="B5" s="59" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C5" s="59">
         <v>6000000</v>
@@ -17732,7 +17788,7 @@
     <row r="6" spans="1:16">
       <c r="A6" s="98"/>
       <c r="B6" s="59" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C6" s="59">
         <v>6000000</v>
@@ -17784,7 +17840,7 @@
     <row r="7" spans="1:16">
       <c r="A7" s="98"/>
       <c r="B7" s="59" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C7" s="59">
         <v>6000000</v>
@@ -17836,7 +17892,7 @@
     <row r="8" spans="1:16">
       <c r="A8" s="98"/>
       <c r="B8" s="59" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C8" s="59">
         <v>6000000</v>
@@ -17888,7 +17944,7 @@
     <row r="9" spans="1:16">
       <c r="A9" s="98"/>
       <c r="B9" s="59" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C9" s="59">
         <v>3000000</v>
@@ -17940,7 +17996,7 @@
     <row r="10" spans="1:16">
       <c r="A10" s="98"/>
       <c r="B10" s="59" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C10" s="59">
         <v>3000000</v>
@@ -17992,7 +18048,7 @@
     <row r="11" spans="1:16">
       <c r="A11" s="98"/>
       <c r="B11" s="59" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C11" s="59">
         <v>3000000</v>
@@ -18044,7 +18100,7 @@
     <row r="12" spans="1:16">
       <c r="A12" s="98"/>
       <c r="B12" s="59" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C12" s="59">
         <v>3000000</v>
@@ -18096,7 +18152,7 @@
     <row r="13" spans="1:16">
       <c r="A13" s="98"/>
       <c r="B13" s="59" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C13" s="59">
         <v>10000000</v>
@@ -18148,7 +18204,7 @@
     <row r="14" spans="1:16">
       <c r="A14" s="98"/>
       <c r="B14" s="59" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C14" s="59">
         <v>10000000</v>
@@ -18200,7 +18256,7 @@
     <row r="15" spans="1:16">
       <c r="A15" s="98"/>
       <c r="B15" s="59" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C15" s="59">
         <v>10000000</v>
@@ -18252,7 +18308,7 @@
     <row r="16" spans="1:16">
       <c r="A16" s="98"/>
       <c r="B16" s="59" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C16" s="59">
         <v>10000000</v>
@@ -18304,7 +18360,7 @@
     <row r="17" spans="1:16">
       <c r="A17" s="98"/>
       <c r="B17" s="59" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C17" s="59">
         <v>10000000</v>
@@ -18356,7 +18412,7 @@
     <row r="18" spans="1:16">
       <c r="A18" s="98"/>
       <c r="B18" s="59" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C18" s="59">
         <v>10000000</v>
@@ -18408,7 +18464,7 @@
     <row r="19" spans="1:16">
       <c r="A19" s="98"/>
       <c r="B19" s="59" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C19" s="59">
         <v>10000000</v>
@@ -18460,7 +18516,7 @@
     <row r="20" spans="1:16">
       <c r="A20" s="98"/>
       <c r="B20" s="59" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C20" s="59">
         <v>10000000</v>
@@ -18511,10 +18567,10 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="97" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C21" s="59">
         <v>6000000</v>
@@ -18560,7 +18616,7 @@
     <row r="22" spans="1:16">
       <c r="A22" s="98"/>
       <c r="B22" s="59" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C22" s="59">
         <v>6000000</v>
@@ -18606,7 +18662,7 @@
     <row r="23" spans="1:16">
       <c r="A23" s="98"/>
       <c r="B23" s="59" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C23" s="59">
         <v>6000000</v>
@@ -18652,7 +18708,7 @@
     <row r="24" spans="1:16">
       <c r="A24" s="98"/>
       <c r="B24" s="59" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C24" s="59">
         <v>6000000</v>
@@ -18698,7 +18754,7 @@
     <row r="25" spans="1:16">
       <c r="A25" s="98"/>
       <c r="B25" s="59" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C25" s="59">
         <v>6000000</v>
@@ -18744,7 +18800,7 @@
     <row r="26" spans="1:16">
       <c r="A26" s="98"/>
       <c r="B26" s="59" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C26" s="59">
         <v>6000000</v>
@@ -18790,7 +18846,7 @@
     <row r="27" spans="1:16">
       <c r="A27" s="98"/>
       <c r="B27" s="59" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C27" s="59">
         <v>3000000</v>
@@ -18836,7 +18892,7 @@
     <row r="28" spans="1:16">
       <c r="A28" s="98"/>
       <c r="B28" s="59" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C28" s="59">
         <v>3000000</v>
@@ -18882,7 +18938,7 @@
     <row r="29" spans="1:16">
       <c r="A29" s="98"/>
       <c r="B29" s="59" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C29" s="59">
         <v>3000000</v>
@@ -18928,7 +18984,7 @@
     <row r="30" spans="1:16">
       <c r="A30" s="98"/>
       <c r="B30" s="59" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C30" s="59">
         <v>3000000</v>
@@ -18974,7 +19030,7 @@
     <row r="31" spans="1:16">
       <c r="A31" s="98"/>
       <c r="B31" s="59" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C31" s="59">
         <v>10000000</v>
@@ -19020,7 +19076,7 @@
     <row r="32" spans="1:16">
       <c r="A32" s="98"/>
       <c r="B32" s="59" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C32" s="59">
         <v>10000000</v>
@@ -19066,7 +19122,7 @@
     <row r="33" spans="1:16">
       <c r="A33" s="98"/>
       <c r="B33" s="59" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C33" s="59">
         <v>10000000</v>
@@ -19112,7 +19168,7 @@
     <row r="34" spans="1:16">
       <c r="A34" s="98"/>
       <c r="B34" s="59" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C34" s="59">
         <v>10000000</v>
@@ -19158,7 +19214,7 @@
     <row r="35" spans="1:16">
       <c r="A35" s="98"/>
       <c r="B35" s="59" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C35" s="59">
         <v>10000000</v>
@@ -19204,7 +19260,7 @@
     <row r="36" spans="1:16">
       <c r="A36" s="98"/>
       <c r="B36" s="59" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C36" s="59">
         <v>10000000</v>
@@ -19250,7 +19306,7 @@
     <row r="37" spans="1:16">
       <c r="A37" s="98"/>
       <c r="B37" s="59" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C37" s="59">
         <v>10000000</v>
@@ -19296,7 +19352,7 @@
     <row r="38" spans="1:16">
       <c r="A38" s="99"/>
       <c r="B38" s="59" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C38" s="59">
         <v>10000000</v>
@@ -19415,10 +19471,10 @@
         <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>152</v>
@@ -19451,10 +19507,10 @@
     <row r="3" spans="1:13">
       <c r="A3" s="80"/>
       <c r="B3" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D3" s="8">
         <v>1000000</v>
@@ -19488,10 +19544,10 @@
     <row r="4" spans="1:13">
       <c r="A4" s="80"/>
       <c r="B4" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C4" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D4" s="8">
         <v>1000000</v>
@@ -19525,10 +19581,10 @@
     <row r="5" spans="1:13">
       <c r="A5" s="80"/>
       <c r="B5" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C5" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D5" s="8">
         <v>1000000</v>
@@ -19562,10 +19618,10 @@
     <row r="6" spans="1:13">
       <c r="A6" s="80"/>
       <c r="B6" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D6" s="8">
         <v>1000000</v>
@@ -19599,10 +19655,10 @@
     <row r="7" spans="1:13">
       <c r="A7" s="80"/>
       <c r="B7" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D7" s="8">
         <v>1000000</v>
@@ -19636,10 +19692,10 @@
     <row r="8" spans="1:13">
       <c r="A8" s="81"/>
       <c r="B8" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D8" s="8">
         <v>1000000</v>
@@ -19708,7 +19764,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="100" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
@@ -19732,13 +19788,13 @@
         <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>118</v>
@@ -19773,13 +19829,13 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="83" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D3" s="11">
         <v>1000000</v>
@@ -19827,10 +19883,10 @@
     <row r="4" spans="1:17">
       <c r="A4" s="84"/>
       <c r="B4" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C4" s="82" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D4" s="11">
         <v>1000000</v>
@@ -19878,10 +19934,10 @@
     <row r="5" spans="1:17">
       <c r="A5" s="84"/>
       <c r="B5" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C5" s="82" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D5" s="11">
         <v>1000000</v>
@@ -19929,10 +19985,10 @@
     <row r="6" spans="1:17">
       <c r="A6" s="84"/>
       <c r="B6" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D6" s="11">
         <v>1000000</v>
@@ -19980,10 +20036,10 @@
     <row r="7" spans="1:17">
       <c r="A7" s="84"/>
       <c r="B7" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D7" s="11">
         <v>1000000</v>
@@ -20031,10 +20087,10 @@
     <row r="8" spans="1:17">
       <c r="A8" s="84"/>
       <c r="B8" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D8" s="11">
         <v>1000000</v>
@@ -20082,10 +20138,10 @@
     <row r="9" spans="1:17">
       <c r="A9" s="84"/>
       <c r="B9" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D9" s="11">
         <v>1000000</v>
@@ -20133,10 +20189,10 @@
     <row r="10" spans="1:17">
       <c r="A10" s="84"/>
       <c r="B10" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D10" s="11">
         <v>1000000</v>
@@ -20184,10 +20240,10 @@
     <row r="11" spans="1:17">
       <c r="A11" s="84"/>
       <c r="B11" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D11" s="11">
         <v>1000000</v>
@@ -20235,10 +20291,10 @@
     <row r="12" spans="1:17">
       <c r="A12" s="84"/>
       <c r="B12" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C12" s="82" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D12" s="11">
         <v>1000000</v>
@@ -20286,10 +20342,10 @@
     <row r="13" spans="1:17" s="67" customFormat="1">
       <c r="A13" s="84"/>
       <c r="B13" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D13" s="11">
         <v>1000000</v>
@@ -20337,10 +20393,10 @@
     <row r="14" spans="1:17">
       <c r="A14" s="84"/>
       <c r="B14" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C14" s="82" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D14" s="11">
         <v>1000000</v>
@@ -20388,10 +20444,10 @@
     <row r="15" spans="1:17">
       <c r="A15" s="84"/>
       <c r="B15" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C15" s="82" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D15" s="11">
         <v>1000000</v>
@@ -20439,10 +20495,10 @@
     <row r="16" spans="1:17">
       <c r="A16" s="84"/>
       <c r="B16" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C16" s="82" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D16" s="11">
         <v>1000000</v>
@@ -20490,10 +20546,10 @@
     <row r="17" spans="1:17" s="67" customFormat="1">
       <c r="A17" s="84"/>
       <c r="B17" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C17" s="82" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D17" s="11">
         <v>1000000</v>
@@ -20541,10 +20597,10 @@
     <row r="18" spans="1:17">
       <c r="A18" s="84"/>
       <c r="B18" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C18" s="82" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D18" s="11">
         <v>1000000</v>
@@ -20591,13 +20647,13 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="83" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C19" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D19" s="11">
         <v>1000000</v>
@@ -20645,10 +20701,10 @@
     <row r="20" spans="1:17">
       <c r="A20" s="84"/>
       <c r="B20" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C20" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D20" s="11">
         <v>1000000</v>
@@ -20696,10 +20752,10 @@
     <row r="21" spans="1:17">
       <c r="A21" s="84"/>
       <c r="B21" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C21" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D21" s="11">
         <v>1000000</v>
@@ -20747,10 +20803,10 @@
     <row r="22" spans="1:17">
       <c r="A22" s="84"/>
       <c r="B22" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C22" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D22" s="11">
         <v>1000000</v>
@@ -20798,10 +20854,10 @@
     <row r="23" spans="1:17">
       <c r="A23" s="84"/>
       <c r="B23" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C23" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D23" s="11">
         <v>1000000</v>
@@ -20849,10 +20905,10 @@
     <row r="24" spans="1:17">
       <c r="A24" s="84"/>
       <c r="B24" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C24" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D24" s="11">
         <v>1000000</v>
@@ -20900,10 +20956,10 @@
     <row r="25" spans="1:17">
       <c r="A25" s="84"/>
       <c r="B25" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C25" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D25" s="11">
         <v>1000000</v>
@@ -20951,10 +21007,10 @@
     <row r="26" spans="1:17">
       <c r="A26" s="84"/>
       <c r="B26" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C26" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D26" s="11">
         <v>1000000</v>
@@ -21002,10 +21058,10 @@
     <row r="27" spans="1:17">
       <c r="A27" s="84"/>
       <c r="B27" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C27" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D27" s="11">
         <v>1000000</v>
@@ -21053,10 +21109,10 @@
     <row r="28" spans="1:17">
       <c r="A28" s="84"/>
       <c r="B28" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C28" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D28" s="11">
         <v>1000000</v>
@@ -21104,10 +21160,10 @@
     <row r="29" spans="1:17">
       <c r="A29" s="84"/>
       <c r="B29" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C29" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D29" s="11">
         <v>1000000</v>
@@ -21155,10 +21211,10 @@
     <row r="30" spans="1:17">
       <c r="A30" s="84"/>
       <c r="B30" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C30" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D30" s="11">
         <v>1000000</v>
@@ -21206,10 +21262,10 @@
     <row r="31" spans="1:17">
       <c r="A31" s="84"/>
       <c r="B31" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C31" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D31" s="11">
         <v>1000000</v>
@@ -21257,10 +21313,10 @@
     <row r="32" spans="1:17">
       <c r="A32" s="84"/>
       <c r="B32" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C32" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D32" s="11">
         <v>1000000</v>
@@ -21308,10 +21364,10 @@
     <row r="33" spans="1:17">
       <c r="A33" s="84"/>
       <c r="B33" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C33" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D33" s="11">
         <v>1000000</v>
@@ -21359,10 +21415,10 @@
     <row r="34" spans="1:17">
       <c r="A34" s="84"/>
       <c r="B34" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C34" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D34" s="11">
         <v>1000000</v>
@@ -21462,10 +21518,10 @@
         <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>118</v>
@@ -21489,10 +21545,10 @@
         <v>162</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -22217,7 +22273,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="104" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
@@ -22234,40 +22290,40 @@
     </row>
     <row r="2" spans="1:18" ht="42">
       <c r="A2" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>196</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>199</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>120</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J2" s="34" t="s">
         <v>119</v>
       </c>
       <c r="K2" s="37" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M2" s="38" t="s">
         <v>123</v>
@@ -22278,10 +22334,10 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C3" s="8">
         <v>10000000</v>
@@ -22305,7 +22361,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K3" s="39">
         <v>19606</v>
@@ -22328,10 +22384,10 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C4" s="8">
         <v>10000000</v>
@@ -22355,7 +22411,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K4" s="39">
         <v>76042</v>
@@ -22378,10 +22434,10 @@
     </row>
     <row r="5" spans="1:18" s="74" customFormat="1">
       <c r="A5" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C5" s="8">
         <v>10000000</v>
@@ -22431,10 +22487,10 @@
     </row>
     <row r="6" spans="1:18" s="74" customFormat="1">
       <c r="A6" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C6" s="8">
         <v>10000000</v>
@@ -22484,10 +22540,10 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C7" s="8">
         <v>10000000</v>
@@ -22511,7 +22567,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K7" s="39">
         <v>16242</v>
@@ -22534,10 +22590,10 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C8" s="8">
         <v>10000000</v>
@@ -22561,7 +22617,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K8" s="39">
         <v>60670</v>
@@ -22584,10 +22640,10 @@
     </row>
     <row r="9" spans="1:18" s="74" customFormat="1">
       <c r="A9" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C9" s="8">
         <v>10000000</v>
@@ -22611,7 +22667,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K9" s="39">
         <v>16688</v>
@@ -22637,10 +22693,10 @@
     </row>
     <row r="10" spans="1:18" s="74" customFormat="1">
       <c r="A10" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C10" s="8">
         <v>10000000</v>
@@ -22664,7 +22720,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K10" s="39">
         <v>55973</v>
@@ -22690,10 +22746,10 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C11" s="8">
         <v>10000000</v>
@@ -22717,7 +22773,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K11" s="39">
         <v>13811</v>
@@ -22728,10 +22784,10 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C12" s="8">
         <v>10000000</v>
@@ -22755,7 +22811,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K12" s="39">
         <v>76258</v>
@@ -22766,10 +22822,10 @@
     </row>
     <row r="13" spans="1:18" s="74" customFormat="1">
       <c r="A13" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" s="71" t="s">
         <v>204</v>
-      </c>
-      <c r="B13" s="71" t="s">
-        <v>207</v>
       </c>
       <c r="C13" s="8">
         <v>10000000</v>
@@ -22793,7 +22849,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="73" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K13" s="39">
         <v>22601</v>
@@ -22819,10 +22875,10 @@
     </row>
     <row r="14" spans="1:18" s="74" customFormat="1">
       <c r="A14" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="71" t="s">
         <v>204</v>
-      </c>
-      <c r="B14" s="71" t="s">
-        <v>207</v>
       </c>
       <c r="C14" s="8">
         <v>10000000</v>
@@ -22846,7 +22902,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="73" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K14" s="39">
         <v>63175</v>
@@ -22872,10 +22928,10 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="70" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B15" s="71" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C15" s="8">
         <v>10000000</v>
@@ -22922,10 +22978,10 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="70" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B16" s="71" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C16" s="8">
         <v>10000000</v>
@@ -22972,10 +23028,10 @@
     </row>
     <row r="17" spans="1:18" s="74" customFormat="1">
       <c r="A17" s="70" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B17" s="71" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C17" s="8">
         <v>10000000</v>
@@ -22999,7 +23055,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="73" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K17" s="39">
         <v>17523</v>
@@ -23025,10 +23081,10 @@
     </row>
     <row r="18" spans="1:18" s="74" customFormat="1">
       <c r="A18" s="70" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C18" s="8">
         <v>10000000</v>
@@ -23052,7 +23108,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="73" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K18" s="39">
         <v>97897</v>
@@ -23078,10 +23134,10 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="70" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B19" s="71" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C19" s="8">
         <v>10000000</v>
@@ -23105,7 +23161,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="73" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K19" s="39">
         <v>19707</v>
@@ -23128,10 +23184,10 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="70" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C20" s="8">
         <v>10000000</v>
@@ -23155,7 +23211,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="73" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K20" s="39">
         <v>124061</v>
@@ -23178,10 +23234,10 @@
     </row>
     <row r="21" spans="1:18" s="74" customFormat="1">
       <c r="A21" s="70" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B21" s="71" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C21" s="8">
         <v>10000000</v>
@@ -23205,7 +23261,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="73" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K21" s="39">
         <v>16031</v>
@@ -23220,10 +23276,10 @@
     </row>
     <row r="22" spans="1:18" s="74" customFormat="1">
       <c r="A22" s="70" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B22" s="71" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C22" s="8">
         <v>10000000</v>
@@ -23247,7 +23303,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="73" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K22" s="39">
         <v>93296</v>
